--- a/docs/output/EXTRACTED_RATES_FCL_EXP.xlsx
+++ b/docs/output/EXTRACTED_RATES_FCL_EXP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
   <si>
     <t>CARRIER</t>
   </si>
@@ -116,15 +116,18 @@
     <t>DANANG</t>
   </si>
   <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>T/S Shanghai</t>
+  </si>
+  <si>
+    <t>VTX1 - INC LSS exclude CIC Usd 50/20'GP Usd 100/40',40'HC collect at destination</t>
+  </si>
+  <si>
     <t>15-20</t>
   </si>
   <si>
-    <t>T/S Shanghai</t>
-  </si>
-  <si>
-    <t>VTX1 - INC LSS exclude CIC Usd 50/20'GP Usd 100/40',40'HC collect at destination</t>
-  </si>
-  <si>
     <t>VTX1</t>
   </si>
   <si>
@@ -194,18 +197,21 @@
     <t>SHEKOU</t>
   </si>
   <si>
+    <t>VTX3,VTX4,VTX6</t>
+  </si>
+  <si>
     <t>5,12,4,5</t>
   </si>
   <si>
-    <t>VTX3,VTX4,VTX6</t>
-  </si>
-  <si>
     <t>VTX3,VTX4,VTX6 - 5,12,4,5</t>
   </si>
   <si>
     <t>NANSHA</t>
   </si>
   <si>
+    <t>11, 6</t>
+  </si>
+  <si>
     <t>7 days (det)</t>
   </si>
   <si>
@@ -245,6 +251,9 @@
     <t>Huangpu</t>
   </si>
   <si>
+    <t>T/S Shekou</t>
+  </si>
+  <si>
     <t>VTX3 - case (Reefer)</t>
   </si>
   <si>
@@ -263,6 +272,9 @@
     <t>Chongqing (railway)</t>
   </si>
   <si>
+    <t>T/S Qinzhou</t>
+  </si>
+  <si>
     <t>CKV2 - case (Reefer)</t>
   </si>
   <si>
@@ -281,6 +293,9 @@
     <t>DALIAN</t>
   </si>
   <si>
+    <t>T/S Yokohama</t>
+  </si>
+  <si>
     <t>N.MANILA</t>
   </si>
   <si>
@@ -506,9 +521,6 @@
     <t>TOMAKOMAI</t>
   </si>
   <si>
-    <t>T/S Yokohama</t>
-  </si>
-  <si>
     <t>VTX3, VTX6</t>
   </si>
   <si>
@@ -570,9 +582,6 @@
   </si>
   <si>
     <t>Haldia</t>
-  </si>
-  <si>
-    <t>T/S Shekou</t>
   </si>
   <si>
     <t>Kolkata (Calcutta)</t>
@@ -1578,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -1692,7 +1701,7 @@
         <v>1850</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
@@ -1704,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1715,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1736,13 +1745,13 @@
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1750,10 +1759,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1774,13 +1783,13 @@
         <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1791,7 +1800,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1806,19 +1815,19 @@
         <v>600</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1829,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1844,19 +1853,19 @@
         <v>700</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
         <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1867,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1882,19 +1891,19 @@
         <v>500</v>
       </c>
       <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
         <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1905,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1920,19 +1929,19 @@
         <v>600</v>
       </c>
       <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
         <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1943,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1958,19 +1967,19 @@
         <v>70</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1981,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -2002,13 +2011,13 @@
         <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2019,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -2034,19 +2043,19 @@
         <v>70</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N16" t="s">
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
         <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2057,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -2078,13 +2087,13 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2095,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2110,19 +2119,19 @@
         <v>20</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
         <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2130,10 +2139,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2154,13 +2163,13 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s">
         <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2171,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -2186,19 +2195,19 @@
         <v>70</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P20" t="s">
         <v>26</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2206,10 +2215,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2230,13 +2239,13 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s">
         <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2247,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2261,20 +2270,20 @@
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="M22" t="s">
-        <v>56</v>
+      <c r="M22">
+        <v>10</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P22" t="s">
         <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2282,10 +2291,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2300,19 +2309,19 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P23" t="s">
         <v>26</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2323,7 +2332,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2337,14 +2346,14 @@
       <c r="G24">
         <v>70</v>
       </c>
-      <c r="M24" t="s">
-        <v>59</v>
+      <c r="M24">
+        <v>50</v>
       </c>
       <c r="N24" t="s">
         <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
         <v>26</v>
@@ -2361,7 +2370,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2376,19 +2385,19 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P25" t="s">
         <v>26</v>
       </c>
       <c r="Q25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2399,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2414,19 +2423,19 @@
         <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s">
         <v>26</v>
       </c>
       <c r="Q26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2437,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2452,19 +2461,19 @@
         <v>130</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N27" t="s">
         <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s">
         <v>26</v>
       </c>
       <c r="Q27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2475,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2490,19 +2499,19 @@
         <v>70</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
         <v>26</v>
       </c>
       <c r="Q28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2513,7 +2522,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2534,13 +2543,13 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s">
         <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2551,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2572,13 +2581,13 @@
         <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P30" t="s">
         <v>26</v>
       </c>
       <c r="Q30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2589,7 +2598,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2610,13 +2619,13 @@
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P31" t="s">
         <v>26</v>
       </c>
       <c r="Q31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2627,7 +2636,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2642,19 +2651,19 @@
         <v>70</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
         <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s">
         <v>26</v>
       </c>
       <c r="Q32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2665,7 +2674,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2686,13 +2695,13 @@
         <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s">
         <v>26</v>
       </c>
       <c r="Q33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2703,7 +2712,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2724,13 +2733,13 @@
         <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P34" t="s">
         <v>26</v>
       </c>
       <c r="Q34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2741,7 +2750,7 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2762,13 +2771,13 @@
         <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P35" t="s">
         <v>26</v>
       </c>
       <c r="Q35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2779,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2797,16 +2806,16 @@
         <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P36" t="s">
         <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2817,7 +2826,7 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2835,16 +2844,16 @@
         <v>15</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="O37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P37" t="s">
         <v>26</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2852,10 +2861,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2873,16 +2882,16 @@
         <v>25</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P38" t="s">
         <v>26</v>
       </c>
       <c r="Q38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2890,10 +2899,10 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2911,16 +2920,16 @@
         <v>25</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" t="s">
         <v>26</v>
       </c>
       <c r="Q39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2931,7 +2940,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2949,16 +2958,16 @@
         <v>15</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P40" t="s">
         <v>26</v>
       </c>
       <c r="Q40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2969,7 +2978,7 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2987,16 +2996,16 @@
         <v>15</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P41" t="s">
         <v>26</v>
       </c>
       <c r="Q41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3007,7 +3016,7 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -3025,16 +3034,16 @@
         <v>15</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P42" t="s">
         <v>26</v>
       </c>
       <c r="Q42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3045,7 +3054,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3063,16 +3072,16 @@
         <v>15</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P43" t="s">
         <v>26</v>
       </c>
       <c r="Q43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3083,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3101,16 +3110,16 @@
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P44" t="s">
         <v>26</v>
       </c>
       <c r="Q44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3121,7 +3130,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3139,16 +3148,16 @@
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P45" t="s">
         <v>26</v>
       </c>
       <c r="Q45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3159,7 +3168,7 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3177,16 +3186,16 @@
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s">
         <v>26</v>
       </c>
       <c r="Q46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3197,7 +3206,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3215,16 +3224,16 @@
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s">
         <v>26</v>
       </c>
       <c r="Q47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3235,7 +3244,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3253,16 +3262,16 @@
         <v>15</v>
       </c>
       <c r="N48" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="O48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P48" t="s">
         <v>26</v>
       </c>
       <c r="Q48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3273,7 +3282,7 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3291,16 +3300,16 @@
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="O49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P49" t="s">
         <v>26</v>
       </c>
       <c r="Q49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3311,7 +3320,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3332,13 +3341,13 @@
         <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P50" t="s">
         <v>26</v>
       </c>
       <c r="Q50" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3346,10 +3355,10 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3370,13 +3379,13 @@
         <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P51" t="s">
         <v>26</v>
       </c>
       <c r="Q51" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3387,7 +3396,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3402,19 +3411,19 @@
         <v>1500</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N52" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P52" t="s">
         <v>26</v>
       </c>
       <c r="Q52" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3425,7 +3434,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3440,19 +3449,19 @@
         <v>1550</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P53" t="s">
         <v>26</v>
       </c>
       <c r="Q53" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3463,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3478,19 +3487,19 @@
         <v>1300</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P54" t="s">
         <v>26</v>
       </c>
       <c r="Q54" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3501,7 +3510,7 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3516,19 +3525,19 @@
         <v>1400</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N55" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P55" t="s">
         <v>26</v>
       </c>
       <c r="Q55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3539,7 +3548,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3554,19 +3563,19 @@
         <v>750</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P56" t="s">
         <v>26</v>
       </c>
       <c r="Q56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3574,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3595,16 +3604,16 @@
         <v>6</v>
       </c>
       <c r="N57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P57" t="s">
         <v>26</v>
       </c>
       <c r="Q57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3612,10 +3621,10 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3633,16 +3642,16 @@
         <v>18</v>
       </c>
       <c r="N58" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P58" t="s">
         <v>26</v>
       </c>
       <c r="Q58" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3650,10 +3659,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3671,16 +3680,16 @@
         <v>18</v>
       </c>
       <c r="N59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P59" t="s">
         <v>26</v>
       </c>
       <c r="Q59" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -3691,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3709,16 +3718,16 @@
         <v>18</v>
       </c>
       <c r="N60" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P60" t="s">
         <v>26</v>
       </c>
       <c r="Q60" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -3729,7 +3738,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3747,16 +3756,16 @@
         <v>18</v>
       </c>
       <c r="N61" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P61" t="s">
         <v>26</v>
       </c>
       <c r="Q61" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -3764,10 +3773,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3782,19 +3791,19 @@
         <v>1300</v>
       </c>
       <c r="M62" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N62" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P62" t="s">
         <v>26</v>
       </c>
       <c r="Q62" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -3802,10 +3811,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3820,19 +3829,19 @@
         <v>1450</v>
       </c>
       <c r="M63" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N63" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P63" t="s">
         <v>26</v>
       </c>
       <c r="Q63" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -3840,10 +3849,10 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3858,19 +3867,19 @@
         <v>1300</v>
       </c>
       <c r="M64" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O64" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P64" t="s">
         <v>26</v>
       </c>
       <c r="Q64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -3878,10 +3887,10 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3896,19 +3905,19 @@
         <v>1450</v>
       </c>
       <c r="M65" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O65" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q65" t="s">
         <v>106</v>
-      </c>
-      <c r="P65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -3919,7 +3928,7 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3937,16 +3946,16 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O66" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P66" t="s">
         <v>26</v>
       </c>
       <c r="Q66" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -3954,10 +3963,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -3978,13 +3987,13 @@
         <v>24</v>
       </c>
       <c r="O67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P67" t="s">
         <v>26</v>
       </c>
       <c r="Q67" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -3995,7 +4004,7 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4016,13 +4025,13 @@
         <v>24</v>
       </c>
       <c r="O68" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P68" t="s">
         <v>26</v>
       </c>
       <c r="Q68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4033,7 +4042,7 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4054,13 +4063,13 @@
         <v>24</v>
       </c>
       <c r="O69" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P69" t="s">
         <v>26</v>
       </c>
       <c r="Q69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4071,7 +4080,7 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4086,19 +4095,19 @@
         <v>900</v>
       </c>
       <c r="M70" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N70" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O70" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P70" t="s">
         <v>26</v>
       </c>
       <c r="Q70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4109,7 +4118,7 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4124,19 +4133,19 @@
         <v>950</v>
       </c>
       <c r="M71" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N71" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O71" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P71" t="s">
         <v>26</v>
       </c>
       <c r="Q71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4147,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4162,19 +4171,19 @@
         <v>1700</v>
       </c>
       <c r="M72" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O72" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P72" t="s">
         <v>26</v>
       </c>
       <c r="Q72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4185,7 +4194,7 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4200,19 +4209,19 @@
         <v>1750</v>
       </c>
       <c r="M73" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O73" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P73" t="s">
         <v>26</v>
       </c>
       <c r="Q73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4223,7 +4232,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4244,13 +4253,13 @@
         <v>24</v>
       </c>
       <c r="O74" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P74" t="s">
         <v>26</v>
       </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4258,10 +4267,10 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4282,13 +4291,13 @@
         <v>24</v>
       </c>
       <c r="O75" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P75" t="s">
         <v>26</v>
       </c>
       <c r="Q75" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4299,7 +4308,7 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4317,16 +4326,16 @@
         <v>6</v>
       </c>
       <c r="N76" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O76" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P76" t="s">
         <v>26</v>
       </c>
       <c r="Q76" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4334,10 +4343,10 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4355,16 +4364,16 @@
         <v>6</v>
       </c>
       <c r="N77" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O77" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P77" t="s">
         <v>26</v>
       </c>
       <c r="Q77" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -4375,7 +4384,7 @@
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4390,19 +4399,19 @@
         <v>900</v>
       </c>
       <c r="M78" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O78" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P78" t="s">
         <v>26</v>
       </c>
       <c r="Q78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -4413,7 +4422,7 @@
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4428,19 +4437,19 @@
         <v>950</v>
       </c>
       <c r="M79" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N79" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P79" t="s">
         <v>26</v>
       </c>
       <c r="Q79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -4451,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4466,19 +4475,19 @@
         <v>1000</v>
       </c>
       <c r="M80" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N80" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O80" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P80" t="s">
         <v>26</v>
       </c>
       <c r="Q80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -4489,7 +4498,7 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4504,19 +4513,19 @@
         <v>1050</v>
       </c>
       <c r="M81" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N81" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O81" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P81" t="s">
         <v>26</v>
       </c>
       <c r="Q81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -4527,7 +4536,7 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4542,19 +4551,19 @@
         <v>1200</v>
       </c>
       <c r="M82" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N82" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O82" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P82" t="s">
         <v>26</v>
       </c>
       <c r="Q82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -4565,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4580,19 +4589,19 @@
         <v>1250</v>
       </c>
       <c r="M83" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N83" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O83" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P83" t="s">
         <v>26</v>
       </c>
       <c r="Q83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -4603,7 +4612,7 @@
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4618,19 +4627,19 @@
         <v>900</v>
       </c>
       <c r="M84" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O84" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P84" t="s">
         <v>26</v>
       </c>
       <c r="Q84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -4641,7 +4650,7 @@
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4656,19 +4665,19 @@
         <v>950</v>
       </c>
       <c r="M85" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O85" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P85" t="s">
         <v>26</v>
       </c>
       <c r="Q85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -4679,7 +4688,7 @@
         <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4697,16 +4706,16 @@
         <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O86" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P86" t="s">
         <v>26</v>
       </c>
       <c r="Q86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -4717,7 +4726,7 @@
         <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4735,16 +4744,16 @@
         <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O87" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P87" t="s">
         <v>26</v>
       </c>
       <c r="Q87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -4755,7 +4764,7 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4773,16 +4782,16 @@
         <v>29</v>
       </c>
       <c r="N88" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O88" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P88" t="s">
         <v>26</v>
       </c>
       <c r="Q88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -4793,7 +4802,7 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4811,16 +4820,16 @@
         <v>29</v>
       </c>
       <c r="N89" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O89" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P89" t="s">
         <v>26</v>
       </c>
       <c r="Q89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -4831,7 +4840,7 @@
         <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4852,13 +4861,13 @@
         <v>24</v>
       </c>
       <c r="O90" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P90" t="s">
         <v>26</v>
       </c>
       <c r="Q90" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -4869,7 +4878,7 @@
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -4890,13 +4899,13 @@
         <v>24</v>
       </c>
       <c r="O91" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P91" t="s">
         <v>26</v>
       </c>
       <c r="Q91" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -4907,7 +4916,7 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -4928,13 +4937,13 @@
         <v>24</v>
       </c>
       <c r="O92" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P92" t="s">
         <v>26</v>
       </c>
       <c r="Q92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -4945,7 +4954,7 @@
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4966,13 +4975,13 @@
         <v>24</v>
       </c>
       <c r="O93" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P93" t="s">
         <v>26</v>
       </c>
       <c r="Q93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -4983,7 +4992,7 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5004,13 +5013,13 @@
         <v>24</v>
       </c>
       <c r="O94" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P94" t="s">
         <v>26</v>
       </c>
       <c r="Q94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -5021,7 +5030,7 @@
         <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5042,13 +5051,13 @@
         <v>24</v>
       </c>
       <c r="O95" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P95" t="s">
         <v>26</v>
       </c>
       <c r="Q95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -5059,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5080,13 +5089,13 @@
         <v>24</v>
       </c>
       <c r="O96" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P96" t="s">
         <v>26</v>
       </c>
       <c r="Q96" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -5097,7 +5106,7 @@
         <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5118,13 +5127,13 @@
         <v>24</v>
       </c>
       <c r="O97" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P97" t="s">
         <v>26</v>
       </c>
       <c r="Q97" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -5135,7 +5144,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5150,19 +5159,19 @@
         <v>450</v>
       </c>
       <c r="M98" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N98" t="s">
         <v>24</v>
       </c>
       <c r="O98" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P98" t="s">
         <v>26</v>
       </c>
       <c r="Q98" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -5173,7 +5182,7 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5188,19 +5197,19 @@
         <v>500</v>
       </c>
       <c r="M99" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N99" t="s">
         <v>24</v>
       </c>
       <c r="O99" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P99" t="s">
         <v>26</v>
       </c>
       <c r="Q99" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -5211,7 +5220,7 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5226,19 +5235,19 @@
         <v>450</v>
       </c>
       <c r="M100" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N100" t="s">
         <v>24</v>
       </c>
       <c r="O100" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P100" t="s">
         <v>26</v>
       </c>
       <c r="Q100" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -5249,7 +5258,7 @@
         <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5270,13 +5279,13 @@
         <v>24</v>
       </c>
       <c r="O101" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P101" t="s">
         <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -5287,7 +5296,7 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5302,19 +5311,19 @@
         <v>450</v>
       </c>
       <c r="M102" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N102" t="s">
         <v>24</v>
       </c>
       <c r="O102" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P102" t="s">
         <v>26</v>
       </c>
       <c r="Q102" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -5325,7 +5334,7 @@
         <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5340,19 +5349,19 @@
         <v>500</v>
       </c>
       <c r="M103" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N103" t="s">
         <v>24</v>
       </c>
       <c r="O103" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P103" t="s">
         <v>26</v>
       </c>
       <c r="Q103" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -5363,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5378,19 +5387,19 @@
         <v>450</v>
       </c>
       <c r="M104" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N104" t="s">
         <v>24</v>
       </c>
       <c r="O104" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P104" t="s">
         <v>26</v>
       </c>
       <c r="Q104" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -5401,7 +5410,7 @@
         <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5416,19 +5425,19 @@
         <v>500</v>
       </c>
       <c r="M105" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N105" t="s">
         <v>24</v>
       </c>
       <c r="O105" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P105" t="s">
         <v>26</v>
       </c>
       <c r="Q105" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -5439,7 +5448,7 @@
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5460,13 +5469,13 @@
         <v>24</v>
       </c>
       <c r="O106" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P106" t="s">
         <v>26</v>
       </c>
       <c r="Q106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -5477,7 +5486,7 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5498,13 +5507,13 @@
         <v>24</v>
       </c>
       <c r="O107" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P107" t="s">
         <v>26</v>
       </c>
       <c r="Q107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -5512,10 +5521,10 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5530,19 +5539,19 @@
         <v>550</v>
       </c>
       <c r="M108" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N108" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O108" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P108" t="s">
         <v>26</v>
       </c>
       <c r="Q108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -5550,10 +5559,10 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5568,19 +5577,19 @@
         <v>700</v>
       </c>
       <c r="M109" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N109" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O109" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P109" t="s">
         <v>26</v>
       </c>
       <c r="Q109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -5588,10 +5597,10 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5606,19 +5615,19 @@
         <v>550</v>
       </c>
       <c r="M110" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N110" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O110" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P110" t="s">
         <v>26</v>
       </c>
       <c r="Q110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -5626,10 +5635,10 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5644,19 +5653,19 @@
         <v>700</v>
       </c>
       <c r="M111" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N111" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O111" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P111" t="s">
         <v>26</v>
       </c>
       <c r="Q111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -5664,10 +5673,10 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5682,19 +5691,19 @@
         <v>550</v>
       </c>
       <c r="M112" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N112" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O112" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P112" t="s">
         <v>26</v>
       </c>
       <c r="Q112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -5702,10 +5711,10 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -5720,19 +5729,19 @@
         <v>700</v>
       </c>
       <c r="M113" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N113" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O113" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P113" t="s">
         <v>26</v>
       </c>
       <c r="Q113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -5740,10 +5749,10 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -5758,19 +5767,19 @@
         <v>550</v>
       </c>
       <c r="M114" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N114" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O114" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P114" t="s">
         <v>26</v>
       </c>
       <c r="Q114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -5778,10 +5787,10 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -5796,19 +5805,19 @@
         <v>700</v>
       </c>
       <c r="M115" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N115" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O115" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P115" t="s">
         <v>26</v>
       </c>
       <c r="Q115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -5816,10 +5825,10 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -5834,19 +5843,19 @@
         <v>550</v>
       </c>
       <c r="M116" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N116" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O116" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P116" t="s">
         <v>26</v>
       </c>
       <c r="Q116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -5854,10 +5863,10 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -5872,19 +5881,19 @@
         <v>700</v>
       </c>
       <c r="M117" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N117" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O117" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P117" t="s">
         <v>26</v>
       </c>
       <c r="Q117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -5892,10 +5901,10 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -5910,19 +5919,19 @@
         <v>550</v>
       </c>
       <c r="M118" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N118" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O118" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P118" t="s">
         <v>26</v>
       </c>
       <c r="Q118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -5930,10 +5939,10 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -5948,19 +5957,19 @@
         <v>700</v>
       </c>
       <c r="M119" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N119" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O119" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P119" t="s">
         <v>26</v>
       </c>
       <c r="Q119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -5968,10 +5977,10 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -5986,19 +5995,19 @@
         <v>550</v>
       </c>
       <c r="M120" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N120" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O120" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P120" t="s">
         <v>26</v>
       </c>
       <c r="Q120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -6006,10 +6015,10 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6024,19 +6033,19 @@
         <v>700</v>
       </c>
       <c r="M121" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N121" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O121" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P121" t="s">
         <v>26</v>
       </c>
       <c r="Q121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -6044,10 +6053,10 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6062,19 +6071,19 @@
         <v>550</v>
       </c>
       <c r="M122" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N122" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O122" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P122" t="s">
         <v>26</v>
       </c>
       <c r="Q122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -6082,10 +6091,10 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6100,19 +6109,19 @@
         <v>700</v>
       </c>
       <c r="M123" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N123" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O123" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P123" t="s">
         <v>26</v>
       </c>
       <c r="Q123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -6120,10 +6129,10 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6138,19 +6147,19 @@
         <v>550</v>
       </c>
       <c r="M124" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N124" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O124" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P124" t="s">
         <v>26</v>
       </c>
       <c r="Q124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -6158,10 +6167,10 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6176,19 +6185,19 @@
         <v>700</v>
       </c>
       <c r="M125" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N125" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O125" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P125" t="s">
         <v>26</v>
       </c>
       <c r="Q125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -6196,10 +6205,10 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6214,19 +6223,19 @@
         <v>1000</v>
       </c>
       <c r="M126" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N126" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O126" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P126" t="s">
         <v>26</v>
       </c>
       <c r="Q126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -6234,10 +6243,10 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -6252,19 +6261,19 @@
         <v>1100</v>
       </c>
       <c r="M127" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N127" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O127" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P127" t="s">
         <v>26</v>
       </c>
       <c r="Q127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -6272,10 +6281,10 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -6293,16 +6302,16 @@
         <v>15</v>
       </c>
       <c r="N128" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O128" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P128" t="s">
         <v>26</v>
       </c>
       <c r="Q128" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -6310,10 +6319,10 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6331,16 +6340,16 @@
         <v>15</v>
       </c>
       <c r="N129" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O129" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P129" t="s">
         <v>26</v>
       </c>
       <c r="Q129" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -6348,10 +6357,10 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6369,16 +6378,16 @@
         <v>15</v>
       </c>
       <c r="N130" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O130" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P130" t="s">
         <v>26</v>
       </c>
       <c r="Q130" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -6386,10 +6395,10 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6407,16 +6416,16 @@
         <v>15</v>
       </c>
       <c r="N131" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O131" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P131" t="s">
         <v>26</v>
       </c>
       <c r="Q131" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -6424,10 +6433,10 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6445,16 +6454,16 @@
         <v>20</v>
       </c>
       <c r="N132" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O132" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P132" t="s">
         <v>26</v>
       </c>
       <c r="Q132" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -6462,10 +6471,10 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6483,16 +6492,16 @@
         <v>20</v>
       </c>
       <c r="N133" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P133" t="s">
         <v>26</v>
       </c>
       <c r="Q133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -6503,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6518,19 +6527,19 @@
         <v>1300</v>
       </c>
       <c r="M134" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N134" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O134" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P134" t="s">
         <v>26</v>
       </c>
       <c r="Q134" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -6541,7 +6550,7 @@
         <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6556,19 +6565,19 @@
         <v>1400</v>
       </c>
       <c r="M135" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N135" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P135" t="s">
         <v>26</v>
       </c>
       <c r="Q135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -6579,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -6597,16 +6606,16 @@
         <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O136" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P136" t="s">
         <v>26</v>
       </c>
       <c r="Q136" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -6617,7 +6626,7 @@
         <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -6635,16 +6644,16 @@
         <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O137" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P137" t="s">
         <v>26</v>
       </c>
       <c r="Q137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -6655,7 +6664,7 @@
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -6673,16 +6682,16 @@
         <v>20</v>
       </c>
       <c r="N138" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O138" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P138" t="s">
         <v>26</v>
       </c>
       <c r="Q138" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -6693,7 +6702,7 @@
         <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -6711,16 +6720,16 @@
         <v>20</v>
       </c>
       <c r="N139" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O139" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P139" t="s">
         <v>26</v>
       </c>
       <c r="Q139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -6731,7 +6740,7 @@
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -6746,19 +6755,19 @@
         <v>1500</v>
       </c>
       <c r="M140" t="s">
+        <v>185</v>
+      </c>
+      <c r="N140" t="s">
         <v>181</v>
       </c>
-      <c r="N140" t="s">
-        <v>177</v>
-      </c>
       <c r="O140" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P140" t="s">
         <v>26</v>
       </c>
       <c r="Q140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -6766,10 +6775,10 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -6784,19 +6793,19 @@
         <v>1600</v>
       </c>
       <c r="M141" t="s">
+        <v>185</v>
+      </c>
+      <c r="N141" t="s">
         <v>181</v>
       </c>
-      <c r="N141" t="s">
-        <v>177</v>
-      </c>
       <c r="O141" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P141" t="s">
         <v>26</v>
       </c>
       <c r="Q141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -6807,7 +6816,7 @@
         <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -6822,19 +6831,19 @@
         <v>1500</v>
       </c>
       <c r="M142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N142" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O142" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P142" t="s">
         <v>26</v>
       </c>
       <c r="Q142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -6842,10 +6851,10 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -6860,19 +6869,19 @@
         <v>1600</v>
       </c>
       <c r="M143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N143" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O143" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P143" t="s">
         <v>26</v>
       </c>
       <c r="Q143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -6883,7 +6892,7 @@
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -6898,19 +6907,19 @@
         <v>2200</v>
       </c>
       <c r="M144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N144" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O144" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P144" t="s">
         <v>26</v>
       </c>
       <c r="Q144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -6918,10 +6927,10 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C145" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -6936,19 +6945,19 @@
         <v>2300</v>
       </c>
       <c r="M145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N145" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O145" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P145" t="s">
         <v>26</v>
       </c>
       <c r="Q145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -6959,7 +6968,7 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -6974,19 +6983,19 @@
         <v>2400</v>
       </c>
       <c r="M146" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N146" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O146" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P146" t="s">
         <v>26</v>
       </c>
       <c r="Q146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -6994,10 +7003,10 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C147" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -7012,30 +7021,30 @@
         <v>2500</v>
       </c>
       <c r="M147" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N147" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O147" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P147" t="s">
         <v>26</v>
       </c>
       <c r="Q147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:21">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7050,21 +7059,21 @@
         <v>80.0</v>
       </c>
       <c r="O148" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:21">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -7079,21 +7088,21 @@
         <v>60.0</v>
       </c>
       <c r="O149" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P149" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:21">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B150" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
@@ -7108,21 +7117,21 @@
         <v>350.0</v>
       </c>
       <c r="O150" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:21">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7137,21 +7146,21 @@
         <v>100.0</v>
       </c>
       <c r="O151" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P151" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:21">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B152" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7166,21 +7175,21 @@
         <v>100.0</v>
       </c>
       <c r="O152" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:21">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C153" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7195,21 +7204,21 @@
         <v>300.0</v>
       </c>
       <c r="O153" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:21">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7224,21 +7233,21 @@
         <v>400.0</v>
       </c>
       <c r="O154" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:21">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7253,21 +7262,21 @@
         <v>700.0</v>
       </c>
       <c r="O155" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:21">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C156" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -7282,21 +7291,21 @@
         <v>600.0</v>
       </c>
       <c r="O156" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:21">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C157" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -7311,21 +7320,21 @@
         <v>700.0</v>
       </c>
       <c r="O157" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:21">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -7340,21 +7349,21 @@
         <v>600.0</v>
       </c>
       <c r="O158" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P158" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:21">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -7369,21 +7378,21 @@
         <v>600.0</v>
       </c>
       <c r="O159" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P159" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:21">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C160" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -7398,21 +7407,21 @@
         <v>650.0</v>
       </c>
       <c r="O160" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:21">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -7427,21 +7436,21 @@
         <v>800.0</v>
       </c>
       <c r="O161" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P161" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:21">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -7456,21 +7465,21 @@
         <v>700.0</v>
       </c>
       <c r="O162" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:21">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -7485,21 +7494,21 @@
         <v>600.0</v>
       </c>
       <c r="O163" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P163" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:21">
       <c r="A164" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C164" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -7514,24 +7523,24 @@
         <v>60.0</v>
       </c>
       <c r="O164" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q164" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:21">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -7546,21 +7555,21 @@
         <v>300.0</v>
       </c>
       <c r="O165" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P165" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:21">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -7575,385 +7584,385 @@
         <v>1400.0</v>
       </c>
       <c r="O166" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:21">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O167" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F168" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G168" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O168" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:21">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F169" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G169" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O169" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:21">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
+        <v>222</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" t="s">
         <v>219</v>
       </c>
-      <c r="D170" t="s">
-        <v>23</v>
-      </c>
-      <c r="E170" t="s">
-        <v>216</v>
-      </c>
       <c r="F170" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G170" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O170" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:21">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C171" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
       </c>
       <c r="E171" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F171" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G171" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O171" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F172" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G172" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O172" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:21">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F173" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G173" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O173" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:21">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F174" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G174" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O174" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:21">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G175" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O175" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:21">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B176" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F176" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G176" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O176" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:21">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B177" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C177" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
       </c>
       <c r="E177" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F177" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G177" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O177" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:21">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B178" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C178" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F178" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G178" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O178" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:21">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B179" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C179" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F179" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G179" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O179" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C180" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F180" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G180" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O180" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:21">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C181" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -7968,21 +7977,21 @@
         <v>1700.0</v>
       </c>
       <c r="O181" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:21">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C182" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -7997,24 +8006,24 @@
         <v>100.0</v>
       </c>
       <c r="O182" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q182" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:21">
       <c r="A183" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C183" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -8029,33 +8038,33 @@
         <v>1100.0</v>
       </c>
       <c r="L183" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M183" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N183" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O183" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P183" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q183" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" spans="1:21">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B184" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C184" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
@@ -8070,33 +8079,33 @@
         <v>11450.0</v>
       </c>
       <c r="L184" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M184">
         <v>23</v>
       </c>
       <c r="N184" t="s">
+        <v>248</v>
+      </c>
+      <c r="O184" t="s">
+        <v>244</v>
+      </c>
+      <c r="P184" t="s">
         <v>245</v>
       </c>
-      <c r="O184" t="s">
-        <v>241</v>
-      </c>
-      <c r="P184" t="s">
-        <v>242</v>
-      </c>
       <c r="Q184" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:21">
       <c r="A185" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C185" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -8111,33 +8120,33 @@
         <v>900.0</v>
       </c>
       <c r="L185" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M185">
         <v>21</v>
       </c>
       <c r="N185" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O185" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P185" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q185" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:21">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -8152,33 +8161,33 @@
         <v>1450.0</v>
       </c>
       <c r="L186" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M186">
         <v>15</v>
       </c>
       <c r="N186" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O186" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P186" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q186" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:21">
       <c r="A187" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C187" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -8193,33 +8202,33 @@
         <v>250.0</v>
       </c>
       <c r="L187" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M187">
         <v>3</v>
       </c>
       <c r="N187" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O187" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P187" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q187" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:21">
       <c r="A188" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C188" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -8234,33 +8243,33 @@
         <v>500.0</v>
       </c>
       <c r="L188" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N188" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O188" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P188" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q188" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:21">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B189" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D189" t="s">
         <v>23</v>
@@ -8275,33 +8284,33 @@
         <v>500.0</v>
       </c>
       <c r="L189" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M189" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N189" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O189" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P189" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q189" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:21">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D190" t="s">
         <v>23</v>
@@ -8316,33 +8325,33 @@
         <v>700.0</v>
       </c>
       <c r="L190" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M190" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N190" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O190" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P190" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q190" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:21">
       <c r="A191" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B191" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C191" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -8357,33 +8366,33 @@
         <v>650.0</v>
       </c>
       <c r="L191" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M191">
         <v>12</v>
       </c>
       <c r="N191" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O191" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P191" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q191" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:21">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C192" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D192" t="s">
         <v>23</v>
@@ -8398,33 +8407,33 @@
         <v>650.0</v>
       </c>
       <c r="L192" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M192">
         <v>9</v>
       </c>
       <c r="N192" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O192" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P192" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q192" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:21">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C193" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D193" t="s">
         <v>23</v>
@@ -8439,33 +8448,33 @@
         <v>1300.0</v>
       </c>
       <c r="L193" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M193" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N193" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O193" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P193" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q193" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:21">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D194" t="s">
         <v>23</v>
@@ -8480,33 +8489,33 @@
         <v>950.0</v>
       </c>
       <c r="L194" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M194" t="s">
+        <v>268</v>
+      </c>
+      <c r="N194" t="s">
+        <v>101</v>
+      </c>
+      <c r="O194" t="s">
+        <v>244</v>
+      </c>
+      <c r="P194" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q194" t="s">
         <v>265</v>
-      </c>
-      <c r="N194" t="s">
-        <v>96</v>
-      </c>
-      <c r="O194" t="s">
-        <v>241</v>
-      </c>
-      <c r="P194" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:21">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D195" t="s">
         <v>23</v>
@@ -8521,33 +8530,33 @@
         <v>1300.0</v>
       </c>
       <c r="L195" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M195" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N195" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O195" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P195" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q195" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:21">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B196" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
@@ -8562,33 +8571,33 @@
         <v>1300.0</v>
       </c>
       <c r="L196" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M196" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N196" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O196" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P196" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q196" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:21">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B197" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
@@ -8603,33 +8612,33 @@
         <v>1300.0</v>
       </c>
       <c r="L197" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M197" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N197" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O197" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P197" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q197" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:21">
       <c r="A198" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B198" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D198" t="s">
         <v>23</v>
@@ -8644,33 +8653,33 @@
         <v>1300.0</v>
       </c>
       <c r="L198" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M198" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N198" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O198" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P198" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q198" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:21">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B199" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C199" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D199" t="s">
         <v>23</v>
@@ -8685,33 +8694,33 @@
         <v>1300.0</v>
       </c>
       <c r="L199" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M199" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N199" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O199" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P199" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q199" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:21">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B200" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C200" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D200" t="s">
         <v>23</v>
@@ -8726,33 +8735,33 @@
         <v>20.0</v>
       </c>
       <c r="L200" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M200">
         <v>3</v>
       </c>
       <c r="N200" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O200" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P200" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q200" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:21">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B201" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C201" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D201" t="s">
         <v>23</v>
@@ -8767,33 +8776,33 @@
         <v>200.0</v>
       </c>
       <c r="L201" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M201">
         <v>4</v>
       </c>
       <c r="N201" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O201" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P201" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q201" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:21">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C202" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D202" t="s">
         <v>23</v>
@@ -8808,33 +8817,33 @@
         <v>50.0</v>
       </c>
       <c r="L202" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M202">
         <v>10</v>
       </c>
       <c r="N202" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O202" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P202" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q202" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:21">
       <c r="A203" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B203" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C203" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D203" t="s">
         <v>23</v>
@@ -8849,59 +8858,59 @@
         <v>50.0</v>
       </c>
       <c r="L203" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M203">
         <v>8</v>
       </c>
       <c r="N203" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O203" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P203" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q203" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="204" spans="1:21">
       <c r="A204" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D204" t="s">
         <v>23</v>
       </c>
       <c r="E204" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F204" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G204" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:21">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C205" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -8916,33 +8925,33 @@
         <v>400.0</v>
       </c>
       <c r="L205" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M205" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N205" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O205" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P205" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q205" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:21">
       <c r="A206" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B206" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C206" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D206" t="s">
         <v>23</v>
@@ -8957,33 +8966,33 @@
         <v>500.0</v>
       </c>
       <c r="L206" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M206" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N206" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O206" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P206" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q206" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:21">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C207" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
@@ -8998,33 +9007,33 @@
         <v>700.0</v>
       </c>
       <c r="L207" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M207" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N207" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O207" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P207" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q207" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:21">
       <c r="A208" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B208" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C208" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -9039,33 +9048,33 @@
         <v>480.0</v>
       </c>
       <c r="L208" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M208" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N208" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O208" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P208" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q208" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:21">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C209" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D209" t="s">
         <v>23</v>
@@ -9080,33 +9089,33 @@
         <v>300.0</v>
       </c>
       <c r="L209" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M209" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N209" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O209" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q209" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:21">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C210" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D210" t="s">
         <v>23</v>
@@ -9121,33 +9130,33 @@
         <v>300.0</v>
       </c>
       <c r="L210" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M210">
         <v>20</v>
       </c>
       <c r="N210" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O210" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P210" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q210" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:21">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C211" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -9162,33 +9171,33 @@
         <v>300.0</v>
       </c>
       <c r="L211" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M211">
         <v>20</v>
       </c>
       <c r="N211" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O211" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P211" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q211" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:21">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C212" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D212" t="s">
         <v>23</v>
@@ -9203,33 +9212,33 @@
         <v>300.0</v>
       </c>
       <c r="L212" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M212">
         <v>20</v>
       </c>
       <c r="N212" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O212" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P212" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q212" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:21">
       <c r="A213" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C213" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D213" t="s">
         <v>23</v>
@@ -9244,33 +9253,33 @@
         <v>500.0</v>
       </c>
       <c r="L213" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M213">
         <v>20</v>
       </c>
       <c r="N213" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O213" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P213" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q213" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:21">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C214" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D214" t="s">
         <v>23</v>
@@ -9285,33 +9294,33 @@
         <v>300.0</v>
       </c>
       <c r="L214" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M214">
         <v>20</v>
       </c>
       <c r="N214" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O214" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P214" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q214" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:21">
       <c r="A215" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C215" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D215" t="s">
         <v>23</v>
@@ -9326,33 +9335,33 @@
         <v>300.0</v>
       </c>
       <c r="L215" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M215">
         <v>20</v>
       </c>
       <c r="N215" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O215" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P215" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q215" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:21">
       <c r="A216" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B216" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C216" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D216" t="s">
         <v>23</v>
@@ -9367,33 +9376,33 @@
         <v>300.0</v>
       </c>
       <c r="L216" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M216">
         <v>20</v>
       </c>
       <c r="N216" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O216" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P216" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q216" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:21">
       <c r="A217" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B217" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C217" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D217" t="s">
         <v>23</v>
@@ -9408,33 +9417,33 @@
         <v>700.0</v>
       </c>
       <c r="L217" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M217">
         <v>20</v>
       </c>
       <c r="N217" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O217" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P217" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q217" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:21">
       <c r="A218" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B218" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C218" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D218" t="s">
         <v>23</v>
@@ -9449,33 +9458,33 @@
         <v>300.0</v>
       </c>
       <c r="L218" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M218">
         <v>20</v>
       </c>
       <c r="N218" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O218" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P218" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q218" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:21">
       <c r="A219" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B219" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D219" t="s">
         <v>23</v>
@@ -9490,33 +9499,33 @@
         <v>300.0</v>
       </c>
       <c r="L219" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M219">
         <v>20</v>
       </c>
       <c r="N219" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O219" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q219" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:21">
       <c r="A220" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C220" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D220" t="s">
         <v>23</v>
@@ -9531,33 +9540,33 @@
         <v>300.0</v>
       </c>
       <c r="L220" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M220">
         <v>20</v>
       </c>
       <c r="N220" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O220" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P220" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q220" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="221" spans="1:21">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B221" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C221" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
@@ -9572,33 +9581,33 @@
         <v>300.0</v>
       </c>
       <c r="L221" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M221">
         <v>20</v>
       </c>
       <c r="N221" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O221" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P221" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q221" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:21">
       <c r="A222" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C222" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
@@ -9613,33 +9622,33 @@
         <v>300.0</v>
       </c>
       <c r="L222" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M222">
         <v>20</v>
       </c>
       <c r="N222" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O222" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P222" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q222" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="223" spans="1:21">
       <c r="A223" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B223" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D223" t="s">
         <v>23</v>
@@ -9654,33 +9663,33 @@
         <v>450.0</v>
       </c>
       <c r="L223" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M223">
         <v>20</v>
       </c>
       <c r="N223" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O223" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P223" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q223" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:21">
       <c r="A224" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C224" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D224" t="s">
         <v>23</v>
@@ -9695,33 +9704,33 @@
         <v>50.0</v>
       </c>
       <c r="L224" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M224">
         <v>9</v>
       </c>
       <c r="N224" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O224" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P224" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q224" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:21">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B225" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C225" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
@@ -9736,33 +9745,33 @@
         <v>50.0</v>
       </c>
       <c r="L225" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M225">
         <v>8</v>
       </c>
       <c r="N225" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O225" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P225" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q225" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" spans="1:21">
       <c r="A226" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D226" t="s">
         <v>23</v>
@@ -9777,33 +9786,33 @@
         <v>450.0</v>
       </c>
       <c r="L226" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M226" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N226" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O226" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P226" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q226" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" spans="1:21">
       <c r="A227" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D227" t="s">
         <v>23</v>
@@ -9818,33 +9827,33 @@
         <v>300.0</v>
       </c>
       <c r="L227" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M227" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N227" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O227" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q227" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:21">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C228" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D228" t="s">
         <v>23</v>
@@ -9859,33 +9868,33 @@
         <v>300.0</v>
       </c>
       <c r="L228" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M228" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N228" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O228" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q228" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:21">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C229" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
@@ -9900,33 +9909,33 @@
         <v>300.0</v>
       </c>
       <c r="L229" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M229" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N229" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O229" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q229" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:21">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C230" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
@@ -9941,33 +9950,33 @@
         <v>300.0</v>
       </c>
       <c r="L230" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M230" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N230" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O230" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P230" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q230" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:21">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C231" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D231" t="s">
         <v>23</v>
@@ -9982,33 +9991,33 @@
         <v>300.0</v>
       </c>
       <c r="L231" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M231" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N231" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O231" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P231" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q231" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:21">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C232" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
@@ -10023,33 +10032,33 @@
         <v>300.0</v>
       </c>
       <c r="L232" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M232" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N232" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O232" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q232" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:21">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D233" t="s">
         <v>23</v>
@@ -10064,33 +10073,33 @@
         <v>300.0</v>
       </c>
       <c r="L233" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M233" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N233" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O233" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P233" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q233" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:21">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D234" t="s">
         <v>23</v>
@@ -10105,33 +10114,33 @@
         <v>300.0</v>
       </c>
       <c r="L234" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M234" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N234" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O234" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q234" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="1:21">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D235" t="s">
         <v>23</v>
@@ -10146,33 +10155,33 @@
         <v>300.0</v>
       </c>
       <c r="L235" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M235" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N235" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O235" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P235" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q235" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:21">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D236" t="s">
         <v>23</v>
@@ -10187,33 +10196,33 @@
         <v>800.0</v>
       </c>
       <c r="L236" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M236" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N236" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O236" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P236" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q236" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:21">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D237" t="s">
         <v>23</v>
@@ -10228,33 +10237,33 @@
         <v>1050.0</v>
       </c>
       <c r="L237" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M237" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N237" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O237" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q237" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="238" spans="1:21">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
@@ -10269,33 +10278,33 @@
         <v>500.0</v>
       </c>
       <c r="L238" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M238" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N238" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O238" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P238" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q238" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:21">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
@@ -10310,33 +10319,33 @@
         <v>500.0</v>
       </c>
       <c r="L239" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M239" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N239" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O239" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P239" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q239" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="240" spans="1:21">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D240" t="s">
         <v>23</v>
@@ -10351,33 +10360,33 @@
         <v>500.0</v>
       </c>
       <c r="L240" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M240" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N240" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O240" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q240" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:21">
       <c r="A241" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D241" t="s">
         <v>23</v>
@@ -10392,33 +10401,33 @@
         <v>500.0</v>
       </c>
       <c r="L241" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M241" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N241" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O241" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P241" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q241" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:21">
       <c r="A242" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C242" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D242" t="s">
         <v>23</v>
@@ -10433,33 +10442,33 @@
         <v>500.0</v>
       </c>
       <c r="L242" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M242" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N242" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O242" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q242" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:21">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D243" t="s">
         <v>23</v>
@@ -10474,33 +10483,33 @@
         <v>500.0</v>
       </c>
       <c r="L243" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M243" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N243" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O243" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P243" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q243" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:21">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C244" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D244" t="s">
         <v>23</v>
@@ -10515,33 +10524,33 @@
         <v>500.0</v>
       </c>
       <c r="L244" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M244" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N244" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O244" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q244" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:21">
       <c r="A245" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B245" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C245" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D245" t="s">
         <v>23</v>
@@ -10556,33 +10565,33 @@
         <v>500.0</v>
       </c>
       <c r="L245" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M245" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N245" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O245" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q245" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:21">
       <c r="A246" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B246" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D246" t="s">
         <v>23</v>
@@ -10597,33 +10606,33 @@
         <v>500.0</v>
       </c>
       <c r="L246" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M246" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N246" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O246" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q246" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:21">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B247" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C247" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D247" t="s">
         <v>23</v>
@@ -10638,22 +10647,22 @@
         <v>500.0</v>
       </c>
       <c r="L247" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M247" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N247" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O247" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P247" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q247" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/docs/output/EXTRACTED_RATES_FCL_EXP.xlsx
+++ b/docs/output/EXTRACTED_RATES_FCL_EXP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
   <si>
     <t>CARRIER</t>
   </si>
@@ -116,7 +116,7 @@
     <t>DANANG</t>
   </si>
   <si>
-    <t>1,100</t>
+    <t>15-20</t>
   </si>
   <si>
     <t>T/S Shanghai</t>
@@ -125,9 +125,6 @@
     <t>VTX1 - INC LSS exclude CIC Usd 50/20'GP Usd 100/40',40'HC collect at destination</t>
   </si>
   <si>
-    <t>15-20</t>
-  </si>
-  <si>
     <t>VTX1</t>
   </si>
   <si>
@@ -197,10 +194,10 @@
     <t>SHEKOU</t>
   </si>
   <si>
+    <t>5,12,4,5</t>
+  </si>
+  <si>
     <t>VTX3,VTX4,VTX6</t>
-  </si>
-  <si>
-    <t>5,12,4,5</t>
   </si>
   <si>
     <t>VTX3,VTX4,VTX6 - 5,12,4,5</t>
@@ -1587,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -1701,7 +1698,7 @@
         <v>1850</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
@@ -1713,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1724,7 +1721,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1745,13 +1742,13 @@
         <v>24</v>
       </c>
       <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1759,10 +1756,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1783,13 +1780,13 @@
         <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1800,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1815,19 +1812,19 @@
         <v>600</v>
       </c>
       <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
         <v>44</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
         <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1838,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1853,19 +1850,19 @@
         <v>700</v>
       </c>
       <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
         <v>45</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1876,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1891,19 +1888,19 @@
         <v>500</v>
       </c>
       <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
         <v>47</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
         <v>26</v>
       </c>
       <c r="Q12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1914,7 +1911,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1929,19 +1926,19 @@
         <v>600</v>
       </c>
       <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1952,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1967,19 +1964,19 @@
         <v>70</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
         <v>50</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1990,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -2011,13 +2008,13 @@
         <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2028,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -2043,19 +2040,19 @@
         <v>70</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
         <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2066,7 +2063,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -2087,13 +2084,13 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2104,7 +2101,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2119,19 +2116,19 @@
         <v>20</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" t="s">
         <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2139,10 +2136,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2163,13 +2160,13 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s">
         <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2180,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -2195,19 +2192,19 @@
         <v>70</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
         <v>26</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2215,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2239,13 +2236,13 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" t="s">
         <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2256,7 +2253,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2270,20 +2267,20 @@
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="M22">
-        <v>10</v>
+      <c r="M22" t="s">
+        <v>56</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P22" t="s">
         <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2291,10 +2288,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2309,19 +2306,19 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s">
         <v>26</v>
       </c>
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2332,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2346,14 +2343,14 @@
       <c r="G24">
         <v>70</v>
       </c>
-      <c r="M24">
-        <v>50</v>
+      <c r="M24" t="s">
+        <v>59</v>
       </c>
       <c r="N24" t="s">
         <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P24" t="s">
         <v>26</v>
@@ -2370,7 +2367,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2385,19 +2382,19 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
         <v>26</v>
       </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2408,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2423,19 +2420,19 @@
         <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
       </c>
       <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
         <v>65</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2446,7 +2443,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2461,19 +2458,19 @@
         <v>130</v>
       </c>
       <c r="M27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" t="s">
         <v>24</v>
       </c>
       <c r="O27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
         <v>65</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2484,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2499,19 +2496,19 @@
         <v>70</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
       </c>
       <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
         <v>68</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2522,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2543,13 +2540,13 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P29" t="s">
         <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2560,7 +2557,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2581,13 +2578,13 @@
         <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s">
         <v>26</v>
       </c>
       <c r="Q30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2598,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2619,13 +2616,13 @@
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P31" t="s">
         <v>26</v>
       </c>
       <c r="Q31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2636,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2651,19 +2648,19 @@
         <v>70</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
         <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s">
         <v>26</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2674,7 +2671,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2695,13 +2692,13 @@
         <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s">
         <v>26</v>
       </c>
       <c r="Q33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2712,7 +2709,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2733,13 +2730,13 @@
         <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P34" t="s">
         <v>26</v>
       </c>
       <c r="Q34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2750,7 +2747,7 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2771,13 +2768,13 @@
         <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P35" t="s">
         <v>26</v>
       </c>
       <c r="Q35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2788,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2806,16 +2803,16 @@
         <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P36" t="s">
         <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2826,7 +2823,7 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2844,16 +2841,16 @@
         <v>15</v>
       </c>
       <c r="N37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
         <v>78</v>
-      </c>
-      <c r="O37" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2861,10 +2858,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2885,13 +2882,13 @@
         <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" t="s">
         <v>26</v>
       </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2899,10 +2896,10 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2923,13 +2920,13 @@
         <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" t="s">
         <v>26</v>
       </c>
       <c r="Q39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2940,7 +2937,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2958,16 +2955,16 @@
         <v>15</v>
       </c>
       <c r="N40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P40" t="s">
         <v>26</v>
       </c>
       <c r="Q40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2978,7 +2975,7 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2996,16 +2993,16 @@
         <v>15</v>
       </c>
       <c r="N41" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" t="s">
         <v>85</v>
-      </c>
-      <c r="O41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3016,7 +3013,7 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -3034,16 +3031,16 @@
         <v>15</v>
       </c>
       <c r="N42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P42" t="s">
         <v>26</v>
       </c>
       <c r="Q42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3054,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3072,16 +3069,16 @@
         <v>15</v>
       </c>
       <c r="N43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P43" t="s">
         <v>26</v>
       </c>
       <c r="Q43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3092,7 +3089,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3110,16 +3107,16 @@
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P44" t="s">
         <v>26</v>
       </c>
       <c r="Q44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3130,7 +3127,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3148,16 +3145,16 @@
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P45" t="s">
         <v>26</v>
       </c>
       <c r="Q45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3168,7 +3165,7 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3186,16 +3183,16 @@
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s">
         <v>26</v>
       </c>
       <c r="Q46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3206,7 +3203,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3224,16 +3221,16 @@
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P47" t="s">
         <v>26</v>
       </c>
       <c r="Q47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3244,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3262,16 +3259,16 @@
         <v>15</v>
       </c>
       <c r="N48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P48" t="s">
         <v>26</v>
       </c>
       <c r="Q48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3282,7 +3279,7 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3300,16 +3297,16 @@
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P49" t="s">
         <v>26</v>
       </c>
       <c r="Q49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3320,7 +3317,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3341,13 +3338,13 @@
         <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P50" t="s">
         <v>26</v>
       </c>
       <c r="Q50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3355,10 +3352,10 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3379,13 +3376,13 @@
         <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P51" t="s">
         <v>26</v>
       </c>
       <c r="Q51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3396,7 +3393,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3411,19 +3408,19 @@
         <v>1500</v>
       </c>
       <c r="M52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O52" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52" t="s">
         <v>97</v>
-      </c>
-      <c r="O52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3434,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3449,19 +3446,19 @@
         <v>1550</v>
       </c>
       <c r="M53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N53" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q53" t="s">
         <v>97</v>
-      </c>
-      <c r="O53" t="s">
-        <v>56</v>
-      </c>
-      <c r="P53" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3472,7 +3469,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3487,19 +3484,19 @@
         <v>1300</v>
       </c>
       <c r="M54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N54" t="s">
+        <v>96</v>
+      </c>
+      <c r="O54" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" t="s">
         <v>97</v>
-      </c>
-      <c r="O54" t="s">
-        <v>56</v>
-      </c>
-      <c r="P54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3510,7 +3507,7 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3525,19 +3522,19 @@
         <v>1400</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N55" t="s">
+        <v>96</v>
+      </c>
+      <c r="O55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" t="s">
         <v>97</v>
-      </c>
-      <c r="O55" t="s">
-        <v>56</v>
-      </c>
-      <c r="P55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3548,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3563,19 +3560,19 @@
         <v>750</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
+        <v>100</v>
+      </c>
+      <c r="O56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" t="s">
         <v>101</v>
-      </c>
-      <c r="O56" t="s">
-        <v>56</v>
-      </c>
-      <c r="P56" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3583,10 +3580,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3604,16 +3601,16 @@
         <v>6</v>
       </c>
       <c r="N57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P57" t="s">
         <v>26</v>
       </c>
       <c r="Q57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3621,10 +3618,10 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3642,16 +3639,16 @@
         <v>18</v>
       </c>
       <c r="N58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P58" t="s">
         <v>26</v>
       </c>
       <c r="Q58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3659,10 +3656,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3680,16 +3677,16 @@
         <v>18</v>
       </c>
       <c r="N59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P59" t="s">
         <v>26</v>
       </c>
       <c r="Q59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -3700,7 +3697,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3718,16 +3715,16 @@
         <v>18</v>
       </c>
       <c r="N60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P60" t="s">
         <v>26</v>
       </c>
       <c r="Q60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -3738,7 +3735,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3756,16 +3753,16 @@
         <v>18</v>
       </c>
       <c r="N61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P61" t="s">
         <v>26</v>
       </c>
       <c r="Q61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -3773,10 +3770,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3791,19 +3788,19 @@
         <v>1300</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P62" t="s">
         <v>26</v>
       </c>
       <c r="Q62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -3811,10 +3808,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3829,19 +3826,19 @@
         <v>1450</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P63" t="s">
         <v>26</v>
       </c>
       <c r="Q63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -3849,10 +3846,10 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3867,19 +3864,19 @@
         <v>1300</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P64" t="s">
         <v>26</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -3887,10 +3884,10 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3905,19 +3902,19 @@
         <v>1450</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P65" t="s">
         <v>26</v>
       </c>
       <c r="Q65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -3928,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3946,16 +3943,16 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P66" t="s">
         <v>26</v>
       </c>
       <c r="Q66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -3963,10 +3960,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -3987,13 +3984,13 @@
         <v>24</v>
       </c>
       <c r="O67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P67" t="s">
         <v>26</v>
       </c>
       <c r="Q67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4004,7 +4001,7 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4025,13 +4022,13 @@
         <v>24</v>
       </c>
       <c r="O68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P68" t="s">
         <v>26</v>
       </c>
       <c r="Q68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4042,7 +4039,7 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4063,13 +4060,13 @@
         <v>24</v>
       </c>
       <c r="O69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P69" t="s">
         <v>26</v>
       </c>
       <c r="Q69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4080,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4095,19 +4092,19 @@
         <v>900</v>
       </c>
       <c r="M70" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" t="s">
         <v>118</v>
       </c>
-      <c r="N70" t="s">
-        <v>119</v>
-      </c>
       <c r="O70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P70" t="s">
         <v>26</v>
       </c>
       <c r="Q70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4118,7 +4115,7 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4133,19 +4130,19 @@
         <v>950</v>
       </c>
       <c r="M71" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71" t="s">
         <v>118</v>
       </c>
-      <c r="N71" t="s">
-        <v>119</v>
-      </c>
       <c r="O71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P71" t="s">
         <v>26</v>
       </c>
       <c r="Q71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4156,7 +4153,7 @@
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4171,19 +4168,19 @@
         <v>1700</v>
       </c>
       <c r="M72" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" t="s">
         <v>118</v>
       </c>
-      <c r="N72" t="s">
-        <v>119</v>
-      </c>
       <c r="O72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P72" t="s">
         <v>26</v>
       </c>
       <c r="Q72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4194,7 +4191,7 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4209,19 +4206,19 @@
         <v>1750</v>
       </c>
       <c r="M73" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" t="s">
         <v>118</v>
       </c>
-      <c r="N73" t="s">
-        <v>119</v>
-      </c>
       <c r="O73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P73" t="s">
         <v>26</v>
       </c>
       <c r="Q73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4232,7 +4229,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4253,13 +4250,13 @@
         <v>24</v>
       </c>
       <c r="O74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P74" t="s">
         <v>26</v>
       </c>
       <c r="Q74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4267,10 +4264,10 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4291,13 +4288,13 @@
         <v>24</v>
       </c>
       <c r="O75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P75" t="s">
         <v>26</v>
       </c>
       <c r="Q75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4308,7 +4305,7 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4326,16 +4323,16 @@
         <v>6</v>
       </c>
       <c r="N76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P76" t="s">
         <v>26</v>
       </c>
       <c r="Q76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4343,10 +4340,10 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" t="s">
-        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4364,16 +4361,16 @@
         <v>6</v>
       </c>
       <c r="N77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P77" t="s">
         <v>26</v>
       </c>
       <c r="Q77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -4384,7 +4381,7 @@
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4399,19 +4396,19 @@
         <v>900</v>
       </c>
       <c r="M78" t="s">
+        <v>117</v>
+      </c>
+      <c r="N78" t="s">
         <v>118</v>
       </c>
-      <c r="N78" t="s">
-        <v>119</v>
-      </c>
       <c r="O78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P78" t="s">
         <v>26</v>
       </c>
       <c r="Q78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -4422,7 +4419,7 @@
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4437,19 +4434,19 @@
         <v>950</v>
       </c>
       <c r="M79" t="s">
+        <v>117</v>
+      </c>
+      <c r="N79" t="s">
         <v>118</v>
       </c>
-      <c r="N79" t="s">
-        <v>119</v>
-      </c>
       <c r="O79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P79" t="s">
         <v>26</v>
       </c>
       <c r="Q79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -4460,7 +4457,7 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4475,19 +4472,19 @@
         <v>1000</v>
       </c>
       <c r="M80" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80" t="s">
         <v>118</v>
       </c>
-      <c r="N80" t="s">
-        <v>119</v>
-      </c>
       <c r="O80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P80" t="s">
         <v>26</v>
       </c>
       <c r="Q80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -4498,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4513,19 +4510,19 @@
         <v>1050</v>
       </c>
       <c r="M81" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81" t="s">
         <v>118</v>
       </c>
-      <c r="N81" t="s">
-        <v>119</v>
-      </c>
       <c r="O81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P81" t="s">
         <v>26</v>
       </c>
       <c r="Q81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -4536,7 +4533,7 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4551,19 +4548,19 @@
         <v>1200</v>
       </c>
       <c r="M82" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82" t="s">
         <v>118</v>
       </c>
-      <c r="N82" t="s">
-        <v>119</v>
-      </c>
       <c r="O82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P82" t="s">
         <v>26</v>
       </c>
       <c r="Q82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -4574,7 +4571,7 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4589,19 +4586,19 @@
         <v>1250</v>
       </c>
       <c r="M83" t="s">
+        <v>117</v>
+      </c>
+      <c r="N83" t="s">
         <v>118</v>
       </c>
-      <c r="N83" t="s">
-        <v>119</v>
-      </c>
       <c r="O83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P83" t="s">
         <v>26</v>
       </c>
       <c r="Q83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -4612,7 +4609,7 @@
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4627,19 +4624,19 @@
         <v>900</v>
       </c>
       <c r="M84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P84" t="s">
         <v>26</v>
       </c>
       <c r="Q84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -4650,7 +4647,7 @@
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4665,19 +4662,19 @@
         <v>950</v>
       </c>
       <c r="M85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P85" t="s">
         <v>26</v>
       </c>
       <c r="Q85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -4688,7 +4685,7 @@
         <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4706,16 +4703,16 @@
         <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P86" t="s">
         <v>26</v>
       </c>
       <c r="Q86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -4726,7 +4723,7 @@
         <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4744,16 +4741,16 @@
         <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P87" t="s">
         <v>26</v>
       </c>
       <c r="Q87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -4764,7 +4761,7 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4782,16 +4779,16 @@
         <v>29</v>
       </c>
       <c r="N88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P88" t="s">
         <v>26</v>
       </c>
       <c r="Q88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -4802,7 +4799,7 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4820,16 +4817,16 @@
         <v>29</v>
       </c>
       <c r="N89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P89" t="s">
         <v>26</v>
       </c>
       <c r="Q89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -4840,7 +4837,7 @@
         <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4861,13 +4858,13 @@
         <v>24</v>
       </c>
       <c r="O90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P90" t="s">
         <v>26</v>
       </c>
       <c r="Q90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -4878,7 +4875,7 @@
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -4899,13 +4896,13 @@
         <v>24</v>
       </c>
       <c r="O91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P91" t="s">
         <v>26</v>
       </c>
       <c r="Q91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -4916,7 +4913,7 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -4937,13 +4934,13 @@
         <v>24</v>
       </c>
       <c r="O92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P92" t="s">
         <v>26</v>
       </c>
       <c r="Q92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -4954,7 +4951,7 @@
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4975,13 +4972,13 @@
         <v>24</v>
       </c>
       <c r="O93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P93" t="s">
         <v>26</v>
       </c>
       <c r="Q93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -4992,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5013,13 +5010,13 @@
         <v>24</v>
       </c>
       <c r="O94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P94" t="s">
         <v>26</v>
       </c>
       <c r="Q94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -5030,7 +5027,7 @@
         <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5051,13 +5048,13 @@
         <v>24</v>
       </c>
       <c r="O95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P95" t="s">
         <v>26</v>
       </c>
       <c r="Q95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -5068,7 +5065,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5089,13 +5086,13 @@
         <v>24</v>
       </c>
       <c r="O96" t="s">
+        <v>138</v>
+      </c>
+      <c r="P96" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q96" t="s">
         <v>139</v>
-      </c>
-      <c r="P96" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -5106,7 +5103,7 @@
         <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5127,13 +5124,13 @@
         <v>24</v>
       </c>
       <c r="O97" t="s">
+        <v>138</v>
+      </c>
+      <c r="P97" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q97" t="s">
         <v>139</v>
-      </c>
-      <c r="P97" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -5144,7 +5141,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5159,19 +5156,19 @@
         <v>450</v>
       </c>
       <c r="M98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N98" t="s">
         <v>24</v>
       </c>
       <c r="O98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P98" t="s">
         <v>26</v>
       </c>
       <c r="Q98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -5182,7 +5179,7 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5197,19 +5194,19 @@
         <v>500</v>
       </c>
       <c r="M99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N99" t="s">
         <v>24</v>
       </c>
       <c r="O99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P99" t="s">
         <v>26</v>
       </c>
       <c r="Q99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -5220,7 +5217,7 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5235,19 +5232,19 @@
         <v>450</v>
       </c>
       <c r="M100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N100" t="s">
         <v>24</v>
       </c>
       <c r="O100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P100" t="s">
         <v>26</v>
       </c>
       <c r="Q100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -5258,7 +5255,7 @@
         <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5279,13 +5276,13 @@
         <v>24</v>
       </c>
       <c r="O101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P101" t="s">
         <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -5296,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5311,19 +5308,19 @@
         <v>450</v>
       </c>
       <c r="M102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N102" t="s">
         <v>24</v>
       </c>
       <c r="O102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P102" t="s">
         <v>26</v>
       </c>
       <c r="Q102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -5334,7 +5331,7 @@
         <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5349,19 +5346,19 @@
         <v>500</v>
       </c>
       <c r="M103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N103" t="s">
         <v>24</v>
       </c>
       <c r="O103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P103" t="s">
         <v>26</v>
       </c>
       <c r="Q103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -5372,7 +5369,7 @@
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5387,19 +5384,19 @@
         <v>450</v>
       </c>
       <c r="M104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N104" t="s">
         <v>24</v>
       </c>
       <c r="O104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P104" t="s">
         <v>26</v>
       </c>
       <c r="Q104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -5410,7 +5407,7 @@
         <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5425,19 +5422,19 @@
         <v>500</v>
       </c>
       <c r="M105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N105" t="s">
         <v>24</v>
       </c>
       <c r="O105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P105" t="s">
         <v>26</v>
       </c>
       <c r="Q105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -5448,7 +5445,7 @@
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5469,13 +5466,13 @@
         <v>24</v>
       </c>
       <c r="O106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P106" t="s">
         <v>26</v>
       </c>
       <c r="Q106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -5486,7 +5483,7 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5507,13 +5504,13 @@
         <v>24</v>
       </c>
       <c r="O107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P107" t="s">
         <v>26</v>
       </c>
       <c r="Q107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -5521,10 +5518,10 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5539,19 +5536,19 @@
         <v>550</v>
       </c>
       <c r="M108" t="s">
+        <v>154</v>
+      </c>
+      <c r="N108" t="s">
         <v>155</v>
       </c>
-      <c r="N108" t="s">
-        <v>156</v>
-      </c>
       <c r="O108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P108" t="s">
         <v>26</v>
       </c>
       <c r="Q108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -5559,10 +5556,10 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5577,19 +5574,19 @@
         <v>700</v>
       </c>
       <c r="M109" t="s">
+        <v>154</v>
+      </c>
+      <c r="N109" t="s">
         <v>155</v>
       </c>
-      <c r="N109" t="s">
-        <v>156</v>
-      </c>
       <c r="O109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P109" t="s">
         <v>26</v>
       </c>
       <c r="Q109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -5597,10 +5594,10 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5615,19 +5612,19 @@
         <v>550</v>
       </c>
       <c r="M110" t="s">
+        <v>154</v>
+      </c>
+      <c r="N110" t="s">
         <v>155</v>
       </c>
-      <c r="N110" t="s">
-        <v>156</v>
-      </c>
       <c r="O110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P110" t="s">
         <v>26</v>
       </c>
       <c r="Q110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -5635,10 +5632,10 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" t="s">
         <v>157</v>
-      </c>
-      <c r="C111" t="s">
-        <v>158</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5653,19 +5650,19 @@
         <v>700</v>
       </c>
       <c r="M111" t="s">
+        <v>154</v>
+      </c>
+      <c r="N111" t="s">
         <v>155</v>
       </c>
-      <c r="N111" t="s">
-        <v>156</v>
-      </c>
       <c r="O111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P111" t="s">
         <v>26</v>
       </c>
       <c r="Q111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -5673,10 +5670,10 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5691,19 +5688,19 @@
         <v>550</v>
       </c>
       <c r="M112" t="s">
+        <v>154</v>
+      </c>
+      <c r="N112" t="s">
         <v>155</v>
       </c>
-      <c r="N112" t="s">
-        <v>156</v>
-      </c>
       <c r="O112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P112" t="s">
         <v>26</v>
       </c>
       <c r="Q112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -5711,10 +5708,10 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -5729,19 +5726,19 @@
         <v>700</v>
       </c>
       <c r="M113" t="s">
+        <v>154</v>
+      </c>
+      <c r="N113" t="s">
         <v>155</v>
       </c>
-      <c r="N113" t="s">
-        <v>156</v>
-      </c>
       <c r="O113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P113" t="s">
         <v>26</v>
       </c>
       <c r="Q113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -5749,10 +5746,10 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -5767,19 +5764,19 @@
         <v>550</v>
       </c>
       <c r="M114" t="s">
+        <v>154</v>
+      </c>
+      <c r="N114" t="s">
         <v>155</v>
       </c>
-      <c r="N114" t="s">
-        <v>156</v>
-      </c>
       <c r="O114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P114" t="s">
         <v>26</v>
       </c>
       <c r="Q114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -5787,10 +5784,10 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -5805,19 +5802,19 @@
         <v>700</v>
       </c>
       <c r="M115" t="s">
+        <v>154</v>
+      </c>
+      <c r="N115" t="s">
         <v>155</v>
       </c>
-      <c r="N115" t="s">
-        <v>156</v>
-      </c>
       <c r="O115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P115" t="s">
         <v>26</v>
       </c>
       <c r="Q115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -5825,10 +5822,10 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -5843,19 +5840,19 @@
         <v>550</v>
       </c>
       <c r="M116" t="s">
+        <v>154</v>
+      </c>
+      <c r="N116" t="s">
         <v>155</v>
       </c>
-      <c r="N116" t="s">
-        <v>156</v>
-      </c>
       <c r="O116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P116" t="s">
         <v>26</v>
       </c>
       <c r="Q116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -5863,10 +5860,10 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -5881,19 +5878,19 @@
         <v>700</v>
       </c>
       <c r="M117" t="s">
+        <v>154</v>
+      </c>
+      <c r="N117" t="s">
         <v>155</v>
       </c>
-      <c r="N117" t="s">
-        <v>156</v>
-      </c>
       <c r="O117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P117" t="s">
         <v>26</v>
       </c>
       <c r="Q117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -5901,10 +5898,10 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -5919,19 +5916,19 @@
         <v>550</v>
       </c>
       <c r="M118" t="s">
+        <v>154</v>
+      </c>
+      <c r="N118" t="s">
         <v>155</v>
       </c>
-      <c r="N118" t="s">
-        <v>156</v>
-      </c>
       <c r="O118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P118" t="s">
         <v>26</v>
       </c>
       <c r="Q118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -5939,10 +5936,10 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -5957,19 +5954,19 @@
         <v>700</v>
       </c>
       <c r="M119" t="s">
+        <v>154</v>
+      </c>
+      <c r="N119" t="s">
         <v>155</v>
       </c>
-      <c r="N119" t="s">
-        <v>156</v>
-      </c>
       <c r="O119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P119" t="s">
         <v>26</v>
       </c>
       <c r="Q119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -5977,10 +5974,10 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -5995,19 +5992,19 @@
         <v>550</v>
       </c>
       <c r="M120" t="s">
+        <v>154</v>
+      </c>
+      <c r="N120" t="s">
         <v>155</v>
       </c>
-      <c r="N120" t="s">
-        <v>156</v>
-      </c>
       <c r="O120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P120" t="s">
         <v>26</v>
       </c>
       <c r="Q120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -6015,10 +6012,10 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6033,19 +6030,19 @@
         <v>700</v>
       </c>
       <c r="M121" t="s">
+        <v>154</v>
+      </c>
+      <c r="N121" t="s">
         <v>155</v>
       </c>
-      <c r="N121" t="s">
-        <v>156</v>
-      </c>
       <c r="O121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P121" t="s">
         <v>26</v>
       </c>
       <c r="Q121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -6053,10 +6050,10 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6071,19 +6068,19 @@
         <v>550</v>
       </c>
       <c r="M122" t="s">
+        <v>154</v>
+      </c>
+      <c r="N122" t="s">
         <v>155</v>
       </c>
-      <c r="N122" t="s">
-        <v>156</v>
-      </c>
       <c r="O122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P122" t="s">
         <v>26</v>
       </c>
       <c r="Q122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -6091,10 +6088,10 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6109,19 +6106,19 @@
         <v>700</v>
       </c>
       <c r="M123" t="s">
+        <v>154</v>
+      </c>
+      <c r="N123" t="s">
         <v>155</v>
       </c>
-      <c r="N123" t="s">
-        <v>156</v>
-      </c>
       <c r="O123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P123" t="s">
         <v>26</v>
       </c>
       <c r="Q123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -6129,10 +6126,10 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6147,19 +6144,19 @@
         <v>550</v>
       </c>
       <c r="M124" t="s">
+        <v>154</v>
+      </c>
+      <c r="N124" t="s">
         <v>155</v>
       </c>
-      <c r="N124" t="s">
-        <v>156</v>
-      </c>
       <c r="O124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P124" t="s">
         <v>26</v>
       </c>
       <c r="Q124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -6167,10 +6164,10 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6185,19 +6182,19 @@
         <v>700</v>
       </c>
       <c r="M125" t="s">
+        <v>154</v>
+      </c>
+      <c r="N125" t="s">
         <v>155</v>
       </c>
-      <c r="N125" t="s">
-        <v>156</v>
-      </c>
       <c r="O125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P125" t="s">
         <v>26</v>
       </c>
       <c r="Q125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -6205,10 +6202,10 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6223,19 +6220,19 @@
         <v>1000</v>
       </c>
       <c r="M126" t="s">
+        <v>154</v>
+      </c>
+      <c r="N126" t="s">
         <v>155</v>
       </c>
-      <c r="N126" t="s">
-        <v>156</v>
-      </c>
       <c r="O126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P126" t="s">
         <v>26</v>
       </c>
       <c r="Q126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -6243,10 +6240,10 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -6261,19 +6258,19 @@
         <v>1100</v>
       </c>
       <c r="M127" t="s">
+        <v>154</v>
+      </c>
+      <c r="N127" t="s">
         <v>155</v>
       </c>
-      <c r="N127" t="s">
-        <v>156</v>
-      </c>
       <c r="O127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P127" t="s">
         <v>26</v>
       </c>
       <c r="Q127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -6281,10 +6278,10 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -6302,16 +6299,16 @@
         <v>15</v>
       </c>
       <c r="N128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P128" t="s">
         <v>26</v>
       </c>
       <c r="Q128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -6319,10 +6316,10 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6340,16 +6337,16 @@
         <v>15</v>
       </c>
       <c r="N129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P129" t="s">
         <v>26</v>
       </c>
       <c r="Q129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -6357,10 +6354,10 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6378,16 +6375,16 @@
         <v>15</v>
       </c>
       <c r="N130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P130" t="s">
         <v>26</v>
       </c>
       <c r="Q130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -6395,10 +6392,10 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6416,16 +6413,16 @@
         <v>15</v>
       </c>
       <c r="N131" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P131" t="s">
         <v>26</v>
       </c>
       <c r="Q131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -6433,10 +6430,10 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6454,16 +6451,16 @@
         <v>20</v>
       </c>
       <c r="N132" t="s">
+        <v>170</v>
+      </c>
+      <c r="O132" t="s">
         <v>171</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q132" t="s">
         <v>172</v>
-      </c>
-      <c r="P132" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -6471,10 +6468,10 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6492,16 +6489,16 @@
         <v>20</v>
       </c>
       <c r="N133" t="s">
+        <v>170</v>
+      </c>
+      <c r="O133" t="s">
         <v>171</v>
       </c>
-      <c r="O133" t="s">
-        <v>172</v>
-      </c>
       <c r="P133" t="s">
         <v>26</v>
       </c>
       <c r="Q133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -6512,7 +6509,7 @@
         <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6527,19 +6524,19 @@
         <v>1300</v>
       </c>
       <c r="M134" t="s">
+        <v>174</v>
+      </c>
+      <c r="N134" t="s">
+        <v>118</v>
+      </c>
+      <c r="O134" t="s">
         <v>175</v>
       </c>
-      <c r="N134" t="s">
-        <v>119</v>
-      </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q134" t="s">
         <v>176</v>
-      </c>
-      <c r="P134" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -6550,7 +6547,7 @@
         <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6565,19 +6562,19 @@
         <v>1400</v>
       </c>
       <c r="M135" t="s">
+        <v>174</v>
+      </c>
+      <c r="N135" t="s">
+        <v>118</v>
+      </c>
+      <c r="O135" t="s">
         <v>175</v>
       </c>
-      <c r="N135" t="s">
-        <v>119</v>
-      </c>
-      <c r="O135" t="s">
-        <v>176</v>
-      </c>
       <c r="P135" t="s">
         <v>26</v>
       </c>
       <c r="Q135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -6588,7 +6585,7 @@
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -6606,16 +6603,16 @@
         <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O136" t="s">
+        <v>175</v>
+      </c>
+      <c r="P136" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q136" t="s">
         <v>176</v>
-      </c>
-      <c r="P136" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -6626,7 +6623,7 @@
         <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -6644,16 +6641,16 @@
         <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P137" t="s">
         <v>26</v>
       </c>
       <c r="Q137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -6664,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -6682,16 +6679,16 @@
         <v>20</v>
       </c>
       <c r="N138" t="s">
+        <v>180</v>
+      </c>
+      <c r="O138" t="s">
         <v>181</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q138" t="s">
         <v>182</v>
-      </c>
-      <c r="P138" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -6702,7 +6699,7 @@
         <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -6720,16 +6717,16 @@
         <v>20</v>
       </c>
       <c r="N139" t="s">
+        <v>180</v>
+      </c>
+      <c r="O139" t="s">
         <v>181</v>
       </c>
-      <c r="O139" t="s">
-        <v>182</v>
-      </c>
       <c r="P139" t="s">
         <v>26</v>
       </c>
       <c r="Q139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -6740,7 +6737,7 @@
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -6755,19 +6752,19 @@
         <v>1500</v>
       </c>
       <c r="M140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P140" t="s">
         <v>26</v>
       </c>
       <c r="Q140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -6775,10 +6772,10 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -6793,19 +6790,19 @@
         <v>1600</v>
       </c>
       <c r="M141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P141" t="s">
         <v>26</v>
       </c>
       <c r="Q141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -6816,7 +6813,7 @@
         <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -6831,19 +6828,19 @@
         <v>1500</v>
       </c>
       <c r="M142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P142" t="s">
         <v>26</v>
       </c>
       <c r="Q142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -6851,10 +6848,10 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" t="s">
         <v>186</v>
-      </c>
-      <c r="C143" t="s">
-        <v>187</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -6869,19 +6866,19 @@
         <v>1600</v>
       </c>
       <c r="M143" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P143" t="s">
         <v>26</v>
       </c>
       <c r="Q143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -6892,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -6907,19 +6904,19 @@
         <v>2200</v>
       </c>
       <c r="M144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P144" t="s">
         <v>26</v>
       </c>
       <c r="Q144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -6927,10 +6924,10 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -6945,19 +6942,19 @@
         <v>2300</v>
       </c>
       <c r="M145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P145" t="s">
         <v>26</v>
       </c>
       <c r="Q145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -6968,7 +6965,7 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -6983,19 +6980,19 @@
         <v>2400</v>
       </c>
       <c r="M146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O146" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P146" t="s">
         <v>26</v>
       </c>
       <c r="Q146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -7003,10 +7000,10 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -7021,30 +7018,30 @@
         <v>2500</v>
       </c>
       <c r="M147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P147" t="s">
         <v>26</v>
       </c>
       <c r="Q147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:21">
       <c r="A148" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" t="s">
         <v>191</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>192</v>
-      </c>
-      <c r="C148" t="s">
-        <v>193</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7059,21 +7056,21 @@
         <v>80.0</v>
       </c>
       <c r="O148" t="s">
+        <v>193</v>
+      </c>
+      <c r="P148" t="s">
         <v>194</v>
-      </c>
-      <c r="P148" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:21">
       <c r="A149" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" t="s">
         <v>191</v>
       </c>
-      <c r="B149" t="s">
-        <v>192</v>
-      </c>
       <c r="C149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -7088,21 +7085,21 @@
         <v>60.0</v>
       </c>
       <c r="O149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:21">
       <c r="A150" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" t="s">
         <v>191</v>
       </c>
-      <c r="B150" t="s">
-        <v>192</v>
-      </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
@@ -7117,21 +7114,21 @@
         <v>350.0</v>
       </c>
       <c r="O150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:21">
       <c r="A151" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" t="s">
         <v>191</v>
       </c>
-      <c r="B151" t="s">
-        <v>192</v>
-      </c>
       <c r="C151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7146,21 +7143,21 @@
         <v>100.0</v>
       </c>
       <c r="O151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:21">
       <c r="A152" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" t="s">
         <v>191</v>
       </c>
-      <c r="B152" t="s">
-        <v>192</v>
-      </c>
       <c r="C152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7175,21 +7172,21 @@
         <v>100.0</v>
       </c>
       <c r="O152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:21">
       <c r="A153" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" t="s">
         <v>191</v>
       </c>
-      <c r="B153" t="s">
-        <v>192</v>
-      </c>
       <c r="C153" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7204,21 +7201,21 @@
         <v>300.0</v>
       </c>
       <c r="O153" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:21">
       <c r="A154" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" t="s">
         <v>191</v>
       </c>
-      <c r="B154" t="s">
-        <v>192</v>
-      </c>
       <c r="C154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7233,21 +7230,21 @@
         <v>400.0</v>
       </c>
       <c r="O154" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:21">
       <c r="A155" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" t="s">
         <v>191</v>
       </c>
-      <c r="B155" t="s">
-        <v>192</v>
-      </c>
       <c r="C155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7262,21 +7259,21 @@
         <v>700.0</v>
       </c>
       <c r="O155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:21">
       <c r="A156" t="s">
+        <v>190</v>
+      </c>
+      <c r="B156" t="s">
         <v>191</v>
       </c>
-      <c r="B156" t="s">
-        <v>192</v>
-      </c>
       <c r="C156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -7291,21 +7288,21 @@
         <v>600.0</v>
       </c>
       <c r="O156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:21">
       <c r="A157" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" t="s">
         <v>191</v>
       </c>
-      <c r="B157" t="s">
-        <v>192</v>
-      </c>
       <c r="C157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -7320,21 +7317,21 @@
         <v>700.0</v>
       </c>
       <c r="O157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P157" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:21">
       <c r="A158" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s">
         <v>191</v>
       </c>
-      <c r="B158" t="s">
-        <v>192</v>
-      </c>
       <c r="C158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -7349,21 +7346,21 @@
         <v>600.0</v>
       </c>
       <c r="O158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:21">
       <c r="A159" t="s">
+        <v>190</v>
+      </c>
+      <c r="B159" t="s">
         <v>191</v>
       </c>
-      <c r="B159" t="s">
-        <v>192</v>
-      </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -7378,21 +7375,21 @@
         <v>600.0</v>
       </c>
       <c r="O159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:21">
       <c r="A160" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" t="s">
         <v>191</v>
       </c>
-      <c r="B160" t="s">
-        <v>192</v>
-      </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -7407,21 +7404,21 @@
         <v>650.0</v>
       </c>
       <c r="O160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:21">
       <c r="A161" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" t="s">
         <v>191</v>
       </c>
-      <c r="B161" t="s">
-        <v>192</v>
-      </c>
       <c r="C161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -7436,21 +7433,21 @@
         <v>800.0</v>
       </c>
       <c r="O161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:21">
       <c r="A162" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" t="s">
         <v>191</v>
       </c>
-      <c r="B162" t="s">
-        <v>192</v>
-      </c>
       <c r="C162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -7465,21 +7462,21 @@
         <v>700.0</v>
       </c>
       <c r="O162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:21">
       <c r="A163" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" t="s">
         <v>191</v>
       </c>
-      <c r="B163" t="s">
-        <v>192</v>
-      </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -7494,21 +7491,21 @@
         <v>600.0</v>
       </c>
       <c r="O163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:21">
       <c r="A164" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" t="s">
         <v>191</v>
       </c>
-      <c r="B164" t="s">
-        <v>192</v>
-      </c>
       <c r="C164" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -7523,24 +7520,24 @@
         <v>60.0</v>
       </c>
       <c r="O164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q164" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:21">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
+        <v>214</v>
+      </c>
+      <c r="C165" t="s">
         <v>215</v>
-      </c>
-      <c r="C165" t="s">
-        <v>216</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -7555,21 +7552,21 @@
         <v>300.0</v>
       </c>
       <c r="O165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:21">
       <c r="A166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" t="s">
         <v>191</v>
       </c>
-      <c r="B166" t="s">
-        <v>192</v>
-      </c>
       <c r="C166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -7584,385 +7581,385 @@
         <v>1400.0</v>
       </c>
       <c r="O166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:21">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
+        <v>217</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" t="s">
         <v>218</v>
       </c>
-      <c r="D167" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167" t="s">
-        <v>219</v>
-      </c>
       <c r="F167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:21">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:21">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
       </c>
       <c r="E170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:21">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
       </c>
       <c r="E171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G171" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O171" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O172" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:21">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O173" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:21">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:21">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:21">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:21">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
       </c>
       <c r="E177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:21">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F178" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G178" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O178" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:21">
       <c r="A179" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:21">
       <c r="A181" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" t="s">
         <v>191</v>
       </c>
-      <c r="B181" t="s">
-        <v>192</v>
-      </c>
       <c r="C181" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -7977,21 +7974,21 @@
         <v>1700.0</v>
       </c>
       <c r="O181" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:21">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -8006,24 +8003,24 @@
         <v>100.0</v>
       </c>
       <c r="O182" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P182" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q182" t="s">
         <v>236</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:21">
       <c r="A183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183" t="s">
         <v>238</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>239</v>
-      </c>
-      <c r="C183" t="s">
-        <v>240</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -8038,33 +8035,33 @@
         <v>1100.0</v>
       </c>
       <c r="L183" t="s">
+        <v>240</v>
+      </c>
+      <c r="M183" t="s">
         <v>241</v>
       </c>
-      <c r="M183" t="s">
+      <c r="N183" t="s">
         <v>242</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>243</v>
       </c>
-      <c r="O183" t="s">
+      <c r="P183" t="s">
         <v>244</v>
       </c>
-      <c r="P183" t="s">
+      <c r="Q183" t="s">
         <v>245</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="184" spans="1:21">
       <c r="A184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B184" t="s">
         <v>238</v>
       </c>
-      <c r="B184" t="s">
-        <v>239</v>
-      </c>
       <c r="C184" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
@@ -8079,33 +8076,33 @@
         <v>11450.0</v>
       </c>
       <c r="L184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M184">
         <v>23</v>
       </c>
       <c r="N184" t="s">
+        <v>247</v>
+      </c>
+      <c r="O184" t="s">
+        <v>243</v>
+      </c>
+      <c r="P184" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q184" t="s">
         <v>248</v>
-      </c>
-      <c r="O184" t="s">
-        <v>244</v>
-      </c>
-      <c r="P184" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:21">
       <c r="A185" t="s">
+        <v>237</v>
+      </c>
+      <c r="B185" t="s">
         <v>238</v>
       </c>
-      <c r="B185" t="s">
-        <v>239</v>
-      </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -8120,33 +8117,33 @@
         <v>900.0</v>
       </c>
       <c r="L185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M185">
         <v>21</v>
       </c>
       <c r="N185" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O185" t="s">
+        <v>243</v>
+      </c>
+      <c r="P185" t="s">
         <v>244</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>245</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:21">
       <c r="A186" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" t="s">
         <v>238</v>
       </c>
-      <c r="B186" t="s">
-        <v>239</v>
-      </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -8161,33 +8158,33 @@
         <v>1450.0</v>
       </c>
       <c r="L186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M186">
         <v>15</v>
       </c>
       <c r="N186" t="s">
+        <v>242</v>
+      </c>
+      <c r="O186" t="s">
         <v>243</v>
       </c>
-      <c r="O186" t="s">
+      <c r="P186" t="s">
         <v>244</v>
       </c>
-      <c r="P186" t="s">
-        <v>245</v>
-      </c>
       <c r="Q186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:21">
       <c r="A187" t="s">
+        <v>237</v>
+      </c>
+      <c r="B187" t="s">
         <v>238</v>
       </c>
-      <c r="B187" t="s">
-        <v>239</v>
-      </c>
       <c r="C187" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -8202,33 +8199,33 @@
         <v>250.0</v>
       </c>
       <c r="L187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M187">
         <v>3</v>
       </c>
       <c r="N187" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:21">
       <c r="A188" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188" t="s">
         <v>238</v>
       </c>
-      <c r="B188" t="s">
-        <v>239</v>
-      </c>
       <c r="C188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -8243,33 +8240,33 @@
         <v>500.0</v>
       </c>
       <c r="L188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N188" t="s">
+        <v>242</v>
+      </c>
+      <c r="O188" t="s">
         <v>243</v>
       </c>
-      <c r="O188" t="s">
-        <v>244</v>
-      </c>
       <c r="P188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:21">
       <c r="A189" t="s">
+        <v>237</v>
+      </c>
+      <c r="B189" t="s">
         <v>238</v>
       </c>
-      <c r="B189" t="s">
-        <v>239</v>
-      </c>
       <c r="C189" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D189" t="s">
         <v>23</v>
@@ -8284,33 +8281,33 @@
         <v>500.0</v>
       </c>
       <c r="L189" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M189" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N189" t="s">
+        <v>242</v>
+      </c>
+      <c r="O189" t="s">
         <v>243</v>
       </c>
-      <c r="O189" t="s">
-        <v>244</v>
-      </c>
       <c r="P189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:21">
       <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
         <v>238</v>
       </c>
-      <c r="B190" t="s">
-        <v>239</v>
-      </c>
       <c r="C190" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D190" t="s">
         <v>23</v>
@@ -8325,33 +8322,33 @@
         <v>700.0</v>
       </c>
       <c r="L190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M190" t="s">
+        <v>257</v>
+      </c>
+      <c r="N190" t="s">
+        <v>242</v>
+      </c>
+      <c r="O190" t="s">
+        <v>243</v>
+      </c>
+      <c r="P190" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q190" t="s">
         <v>258</v>
-      </c>
-      <c r="N190" t="s">
-        <v>243</v>
-      </c>
-      <c r="O190" t="s">
-        <v>244</v>
-      </c>
-      <c r="P190" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:21">
       <c r="A191" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" t="s">
         <v>238</v>
       </c>
-      <c r="B191" t="s">
-        <v>239</v>
-      </c>
       <c r="C191" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -8366,33 +8363,33 @@
         <v>650.0</v>
       </c>
       <c r="L191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M191">
         <v>12</v>
       </c>
       <c r="N191" t="s">
+        <v>242</v>
+      </c>
+      <c r="O191" t="s">
         <v>243</v>
       </c>
-      <c r="O191" t="s">
-        <v>244</v>
-      </c>
       <c r="P191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="1:21">
       <c r="A192" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="s">
         <v>238</v>
       </c>
-      <c r="B192" t="s">
-        <v>239</v>
-      </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D192" t="s">
         <v>23</v>
@@ -8407,33 +8404,33 @@
         <v>650.0</v>
       </c>
       <c r="L192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M192">
         <v>9</v>
       </c>
       <c r="N192" t="s">
+        <v>242</v>
+      </c>
+      <c r="O192" t="s">
         <v>243</v>
       </c>
-      <c r="O192" t="s">
-        <v>244</v>
-      </c>
       <c r="P192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:21">
       <c r="A193" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" t="s">
         <v>238</v>
       </c>
-      <c r="B193" t="s">
-        <v>239</v>
-      </c>
       <c r="C193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D193" t="s">
         <v>23</v>
@@ -8448,33 +8445,33 @@
         <v>1300.0</v>
       </c>
       <c r="L193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M193" t="s">
+        <v>263</v>
+      </c>
+      <c r="N193" t="s">
+        <v>242</v>
+      </c>
+      <c r="O193" t="s">
+        <v>243</v>
+      </c>
+      <c r="P193" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q193" t="s">
         <v>264</v>
-      </c>
-      <c r="N193" t="s">
-        <v>243</v>
-      </c>
-      <c r="O193" t="s">
-        <v>244</v>
-      </c>
-      <c r="P193" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:21">
       <c r="A194" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" t="s">
         <v>238</v>
       </c>
-      <c r="B194" t="s">
-        <v>239</v>
-      </c>
       <c r="C194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D194" t="s">
         <v>23</v>
@@ -8489,33 +8486,33 @@
         <v>950.0</v>
       </c>
       <c r="L194" t="s">
+        <v>266</v>
+      </c>
+      <c r="M194" t="s">
         <v>267</v>
       </c>
-      <c r="M194" t="s">
-        <v>268</v>
-      </c>
       <c r="N194" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O194" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:21">
       <c r="A195" t="s">
+        <v>237</v>
+      </c>
+      <c r="B195" t="s">
         <v>238</v>
       </c>
-      <c r="B195" t="s">
-        <v>239</v>
-      </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D195" t="s">
         <v>23</v>
@@ -8530,33 +8527,33 @@
         <v>1300.0</v>
       </c>
       <c r="L195" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M195" t="s">
+        <v>263</v>
+      </c>
+      <c r="N195" t="s">
+        <v>242</v>
+      </c>
+      <c r="O195" t="s">
+        <v>243</v>
+      </c>
+      <c r="P195" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q195" t="s">
         <v>264</v>
-      </c>
-      <c r="N195" t="s">
-        <v>243</v>
-      </c>
-      <c r="O195" t="s">
-        <v>244</v>
-      </c>
-      <c r="P195" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:21">
       <c r="A196" t="s">
+        <v>237</v>
+      </c>
+      <c r="B196" t="s">
         <v>238</v>
       </c>
-      <c r="B196" t="s">
-        <v>239</v>
-      </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
@@ -8571,33 +8568,33 @@
         <v>1300.0</v>
       </c>
       <c r="L196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M196" t="s">
+        <v>263</v>
+      </c>
+      <c r="N196" t="s">
+        <v>242</v>
+      </c>
+      <c r="O196" t="s">
+        <v>243</v>
+      </c>
+      <c r="P196" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q196" t="s">
         <v>264</v>
-      </c>
-      <c r="N196" t="s">
-        <v>243</v>
-      </c>
-      <c r="O196" t="s">
-        <v>244</v>
-      </c>
-      <c r="P196" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:21">
       <c r="A197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B197" t="s">
         <v>238</v>
       </c>
-      <c r="B197" t="s">
-        <v>239</v>
-      </c>
       <c r="C197" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
@@ -8612,33 +8609,33 @@
         <v>1300.0</v>
       </c>
       <c r="L197" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M197" t="s">
+        <v>263</v>
+      </c>
+      <c r="N197" t="s">
+        <v>242</v>
+      </c>
+      <c r="O197" t="s">
+        <v>243</v>
+      </c>
+      <c r="P197" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q197" t="s">
         <v>264</v>
-      </c>
-      <c r="N197" t="s">
-        <v>243</v>
-      </c>
-      <c r="O197" t="s">
-        <v>244</v>
-      </c>
-      <c r="P197" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:21">
       <c r="A198" t="s">
+        <v>237</v>
+      </c>
+      <c r="B198" t="s">
         <v>238</v>
       </c>
-      <c r="B198" t="s">
-        <v>239</v>
-      </c>
       <c r="C198" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D198" t="s">
         <v>23</v>
@@ -8653,33 +8650,33 @@
         <v>1300.0</v>
       </c>
       <c r="L198" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M198" t="s">
+        <v>263</v>
+      </c>
+      <c r="N198" t="s">
+        <v>242</v>
+      </c>
+      <c r="O198" t="s">
+        <v>243</v>
+      </c>
+      <c r="P198" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q198" t="s">
         <v>264</v>
-      </c>
-      <c r="N198" t="s">
-        <v>243</v>
-      </c>
-      <c r="O198" t="s">
-        <v>244</v>
-      </c>
-      <c r="P198" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q198" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:21">
       <c r="A199" t="s">
+        <v>237</v>
+      </c>
+      <c r="B199" t="s">
         <v>238</v>
       </c>
-      <c r="B199" t="s">
-        <v>239</v>
-      </c>
       <c r="C199" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D199" t="s">
         <v>23</v>
@@ -8694,33 +8691,33 @@
         <v>1300.0</v>
       </c>
       <c r="L199" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M199" t="s">
+        <v>263</v>
+      </c>
+      <c r="N199" t="s">
+        <v>242</v>
+      </c>
+      <c r="O199" t="s">
+        <v>243</v>
+      </c>
+      <c r="P199" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q199" t="s">
         <v>264</v>
-      </c>
-      <c r="N199" t="s">
-        <v>243</v>
-      </c>
-      <c r="O199" t="s">
-        <v>244</v>
-      </c>
-      <c r="P199" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:21">
       <c r="A200" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" t="s">
         <v>238</v>
       </c>
-      <c r="B200" t="s">
-        <v>239</v>
-      </c>
       <c r="C200" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D200" t="s">
         <v>23</v>
@@ -8735,33 +8732,33 @@
         <v>20.0</v>
       </c>
       <c r="L200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M200">
         <v>3</v>
       </c>
       <c r="N200" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O200" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:21">
       <c r="A201" t="s">
+        <v>237</v>
+      </c>
+      <c r="B201" t="s">
         <v>238</v>
       </c>
-      <c r="B201" t="s">
-        <v>239</v>
-      </c>
       <c r="C201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D201" t="s">
         <v>23</v>
@@ -8776,33 +8773,33 @@
         <v>200.0</v>
       </c>
       <c r="L201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M201">
         <v>4</v>
       </c>
       <c r="N201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O201" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:21">
       <c r="A202" t="s">
+        <v>237</v>
+      </c>
+      <c r="B202" t="s">
         <v>238</v>
       </c>
-      <c r="B202" t="s">
-        <v>239</v>
-      </c>
       <c r="C202" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D202" t="s">
         <v>23</v>
@@ -8817,33 +8814,33 @@
         <v>50.0</v>
       </c>
       <c r="L202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M202">
         <v>10</v>
       </c>
       <c r="N202" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q202" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:21">
       <c r="A203" t="s">
+        <v>237</v>
+      </c>
+      <c r="B203" t="s">
         <v>238</v>
       </c>
-      <c r="B203" t="s">
-        <v>239</v>
-      </c>
       <c r="C203" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D203" t="s">
         <v>23</v>
@@ -8858,59 +8855,59 @@
         <v>50.0</v>
       </c>
       <c r="L203" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M203">
         <v>8</v>
       </c>
       <c r="N203" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O203" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q203" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:21">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
+        <v>281</v>
+      </c>
+      <c r="C204" t="s">
         <v>282</v>
       </c>
-      <c r="C204" t="s">
-        <v>283</v>
-      </c>
       <c r="D204" t="s">
         <v>23</v>
       </c>
       <c r="E204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P204" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:21">
       <c r="A205" t="s">
+        <v>237</v>
+      </c>
+      <c r="B205" t="s">
         <v>238</v>
       </c>
-      <c r="B205" t="s">
-        <v>239</v>
-      </c>
       <c r="C205" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -8925,33 +8922,33 @@
         <v>400.0</v>
       </c>
       <c r="L205" t="s">
+        <v>278</v>
+      </c>
+      <c r="M205" t="s">
+        <v>284</v>
+      </c>
+      <c r="N205" t="s">
+        <v>285</v>
+      </c>
+      <c r="O205" t="s">
+        <v>243</v>
+      </c>
+      <c r="P205" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q205" t="s">
         <v>279</v>
-      </c>
-      <c r="M205" t="s">
-        <v>285</v>
-      </c>
-      <c r="N205" t="s">
-        <v>286</v>
-      </c>
-      <c r="O205" t="s">
-        <v>244</v>
-      </c>
-      <c r="P205" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:21">
       <c r="A206" t="s">
+        <v>237</v>
+      </c>
+      <c r="B206" t="s">
         <v>238</v>
       </c>
-      <c r="B206" t="s">
-        <v>239</v>
-      </c>
       <c r="C206" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D206" t="s">
         <v>23</v>
@@ -8966,33 +8963,33 @@
         <v>500.0</v>
       </c>
       <c r="L206" t="s">
+        <v>278</v>
+      </c>
+      <c r="M206" t="s">
+        <v>284</v>
+      </c>
+      <c r="N206" t="s">
+        <v>285</v>
+      </c>
+      <c r="O206" t="s">
+        <v>243</v>
+      </c>
+      <c r="P206" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q206" t="s">
         <v>279</v>
-      </c>
-      <c r="M206" t="s">
-        <v>285</v>
-      </c>
-      <c r="N206" t="s">
-        <v>286</v>
-      </c>
-      <c r="O206" t="s">
-        <v>244</v>
-      </c>
-      <c r="P206" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:21">
       <c r="A207" t="s">
+        <v>237</v>
+      </c>
+      <c r="B207" t="s">
         <v>238</v>
       </c>
-      <c r="B207" t="s">
-        <v>239</v>
-      </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
@@ -9007,33 +9004,33 @@
         <v>700.0</v>
       </c>
       <c r="L207" t="s">
+        <v>278</v>
+      </c>
+      <c r="M207" t="s">
+        <v>284</v>
+      </c>
+      <c r="N207" t="s">
+        <v>285</v>
+      </c>
+      <c r="O207" t="s">
+        <v>243</v>
+      </c>
+      <c r="P207" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q207" t="s">
         <v>279</v>
-      </c>
-      <c r="M207" t="s">
-        <v>285</v>
-      </c>
-      <c r="N207" t="s">
-        <v>286</v>
-      </c>
-      <c r="O207" t="s">
-        <v>244</v>
-      </c>
-      <c r="P207" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:21">
       <c r="A208" t="s">
+        <v>237</v>
+      </c>
+      <c r="B208" t="s">
         <v>238</v>
       </c>
-      <c r="B208" t="s">
-        <v>239</v>
-      </c>
       <c r="C208" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -9048,33 +9045,33 @@
         <v>480.0</v>
       </c>
       <c r="L208" t="s">
+        <v>278</v>
+      </c>
+      <c r="M208" t="s">
+        <v>284</v>
+      </c>
+      <c r="N208" t="s">
+        <v>285</v>
+      </c>
+      <c r="O208" t="s">
+        <v>243</v>
+      </c>
+      <c r="P208" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q208" t="s">
         <v>279</v>
-      </c>
-      <c r="M208" t="s">
-        <v>285</v>
-      </c>
-      <c r="N208" t="s">
-        <v>286</v>
-      </c>
-      <c r="O208" t="s">
-        <v>244</v>
-      </c>
-      <c r="P208" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:21">
       <c r="A209" t="s">
+        <v>237</v>
+      </c>
+      <c r="B209" t="s">
         <v>238</v>
       </c>
-      <c r="B209" t="s">
-        <v>239</v>
-      </c>
       <c r="C209" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D209" t="s">
         <v>23</v>
@@ -9089,33 +9086,33 @@
         <v>300.0</v>
       </c>
       <c r="L209" t="s">
+        <v>278</v>
+      </c>
+      <c r="M209" t="s">
+        <v>284</v>
+      </c>
+      <c r="N209" t="s">
+        <v>285</v>
+      </c>
+      <c r="O209" t="s">
+        <v>243</v>
+      </c>
+      <c r="P209" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q209" t="s">
         <v>279</v>
-      </c>
-      <c r="M209" t="s">
-        <v>285</v>
-      </c>
-      <c r="N209" t="s">
-        <v>286</v>
-      </c>
-      <c r="O209" t="s">
-        <v>244</v>
-      </c>
-      <c r="P209" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:21">
       <c r="A210" t="s">
+        <v>237</v>
+      </c>
+      <c r="B210" t="s">
         <v>238</v>
       </c>
-      <c r="B210" t="s">
-        <v>239</v>
-      </c>
       <c r="C210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D210" t="s">
         <v>23</v>
@@ -9130,33 +9127,33 @@
         <v>300.0</v>
       </c>
       <c r="L210" t="s">
+        <v>278</v>
+      </c>
+      <c r="M210">
+        <v>20</v>
+      </c>
+      <c r="N210" t="s">
+        <v>285</v>
+      </c>
+      <c r="O210" t="s">
+        <v>243</v>
+      </c>
+      <c r="P210" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q210" t="s">
         <v>279</v>
-      </c>
-      <c r="M210">
-        <v>20</v>
-      </c>
-      <c r="N210" t="s">
-        <v>286</v>
-      </c>
-      <c r="O210" t="s">
-        <v>244</v>
-      </c>
-      <c r="P210" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:21">
       <c r="A211" t="s">
+        <v>237</v>
+      </c>
+      <c r="B211" t="s">
         <v>238</v>
       </c>
-      <c r="B211" t="s">
-        <v>239</v>
-      </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -9171,33 +9168,33 @@
         <v>300.0</v>
       </c>
       <c r="L211" t="s">
+        <v>278</v>
+      </c>
+      <c r="M211">
+        <v>20</v>
+      </c>
+      <c r="N211" t="s">
+        <v>285</v>
+      </c>
+      <c r="O211" t="s">
+        <v>243</v>
+      </c>
+      <c r="P211" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q211" t="s">
         <v>279</v>
-      </c>
-      <c r="M211">
-        <v>20</v>
-      </c>
-      <c r="N211" t="s">
-        <v>286</v>
-      </c>
-      <c r="O211" t="s">
-        <v>244</v>
-      </c>
-      <c r="P211" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:21">
       <c r="A212" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" t="s">
         <v>238</v>
       </c>
-      <c r="B212" t="s">
-        <v>239</v>
-      </c>
       <c r="C212" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D212" t="s">
         <v>23</v>
@@ -9212,33 +9209,33 @@
         <v>300.0</v>
       </c>
       <c r="L212" t="s">
+        <v>278</v>
+      </c>
+      <c r="M212">
+        <v>20</v>
+      </c>
+      <c r="N212" t="s">
+        <v>285</v>
+      </c>
+      <c r="O212" t="s">
+        <v>243</v>
+      </c>
+      <c r="P212" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q212" t="s">
         <v>279</v>
-      </c>
-      <c r="M212">
-        <v>20</v>
-      </c>
-      <c r="N212" t="s">
-        <v>286</v>
-      </c>
-      <c r="O212" t="s">
-        <v>244</v>
-      </c>
-      <c r="P212" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:21">
       <c r="A213" t="s">
+        <v>237</v>
+      </c>
+      <c r="B213" t="s">
         <v>238</v>
       </c>
-      <c r="B213" t="s">
-        <v>239</v>
-      </c>
       <c r="C213" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D213" t="s">
         <v>23</v>
@@ -9253,33 +9250,33 @@
         <v>500.0</v>
       </c>
       <c r="L213" t="s">
+        <v>278</v>
+      </c>
+      <c r="M213">
+        <v>20</v>
+      </c>
+      <c r="N213" t="s">
+        <v>285</v>
+      </c>
+      <c r="O213" t="s">
+        <v>243</v>
+      </c>
+      <c r="P213" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q213" t="s">
         <v>279</v>
-      </c>
-      <c r="M213">
-        <v>20</v>
-      </c>
-      <c r="N213" t="s">
-        <v>286</v>
-      </c>
-      <c r="O213" t="s">
-        <v>244</v>
-      </c>
-      <c r="P213" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:21">
       <c r="A214" t="s">
+        <v>237</v>
+      </c>
+      <c r="B214" t="s">
         <v>238</v>
       </c>
-      <c r="B214" t="s">
-        <v>239</v>
-      </c>
       <c r="C214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D214" t="s">
         <v>23</v>
@@ -9294,33 +9291,33 @@
         <v>300.0</v>
       </c>
       <c r="L214" t="s">
+        <v>278</v>
+      </c>
+      <c r="M214">
+        <v>20</v>
+      </c>
+      <c r="N214" t="s">
+        <v>285</v>
+      </c>
+      <c r="O214" t="s">
+        <v>243</v>
+      </c>
+      <c r="P214" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q214" t="s">
         <v>279</v>
-      </c>
-      <c r="M214">
-        <v>20</v>
-      </c>
-      <c r="N214" t="s">
-        <v>286</v>
-      </c>
-      <c r="O214" t="s">
-        <v>244</v>
-      </c>
-      <c r="P214" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:21">
       <c r="A215" t="s">
+        <v>237</v>
+      </c>
+      <c r="B215" t="s">
         <v>238</v>
       </c>
-      <c r="B215" t="s">
-        <v>239</v>
-      </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D215" t="s">
         <v>23</v>
@@ -9335,33 +9332,33 @@
         <v>300.0</v>
       </c>
       <c r="L215" t="s">
+        <v>278</v>
+      </c>
+      <c r="M215">
+        <v>20</v>
+      </c>
+      <c r="N215" t="s">
+        <v>285</v>
+      </c>
+      <c r="O215" t="s">
+        <v>243</v>
+      </c>
+      <c r="P215" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q215" t="s">
         <v>279</v>
-      </c>
-      <c r="M215">
-        <v>20</v>
-      </c>
-      <c r="N215" t="s">
-        <v>286</v>
-      </c>
-      <c r="O215" t="s">
-        <v>244</v>
-      </c>
-      <c r="P215" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:21">
       <c r="A216" t="s">
+        <v>237</v>
+      </c>
+      <c r="B216" t="s">
         <v>238</v>
       </c>
-      <c r="B216" t="s">
-        <v>239</v>
-      </c>
       <c r="C216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D216" t="s">
         <v>23</v>
@@ -9376,33 +9373,33 @@
         <v>300.0</v>
       </c>
       <c r="L216" t="s">
+        <v>278</v>
+      </c>
+      <c r="M216">
+        <v>20</v>
+      </c>
+      <c r="N216" t="s">
+        <v>285</v>
+      </c>
+      <c r="O216" t="s">
+        <v>243</v>
+      </c>
+      <c r="P216" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q216" t="s">
         <v>279</v>
-      </c>
-      <c r="M216">
-        <v>20</v>
-      </c>
-      <c r="N216" t="s">
-        <v>286</v>
-      </c>
-      <c r="O216" t="s">
-        <v>244</v>
-      </c>
-      <c r="P216" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:21">
       <c r="A217" t="s">
+        <v>237</v>
+      </c>
+      <c r="B217" t="s">
         <v>238</v>
       </c>
-      <c r="B217" t="s">
-        <v>239</v>
-      </c>
       <c r="C217" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D217" t="s">
         <v>23</v>
@@ -9417,33 +9414,33 @@
         <v>700.0</v>
       </c>
       <c r="L217" t="s">
+        <v>278</v>
+      </c>
+      <c r="M217">
+        <v>20</v>
+      </c>
+      <c r="N217" t="s">
+        <v>285</v>
+      </c>
+      <c r="O217" t="s">
+        <v>243</v>
+      </c>
+      <c r="P217" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q217" t="s">
         <v>279</v>
-      </c>
-      <c r="M217">
-        <v>20</v>
-      </c>
-      <c r="N217" t="s">
-        <v>286</v>
-      </c>
-      <c r="O217" t="s">
-        <v>244</v>
-      </c>
-      <c r="P217" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:21">
       <c r="A218" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" t="s">
         <v>238</v>
       </c>
-      <c r="B218" t="s">
-        <v>239</v>
-      </c>
       <c r="C218" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D218" t="s">
         <v>23</v>
@@ -9458,33 +9455,33 @@
         <v>300.0</v>
       </c>
       <c r="L218" t="s">
+        <v>278</v>
+      </c>
+      <c r="M218">
+        <v>20</v>
+      </c>
+      <c r="N218" t="s">
+        <v>285</v>
+      </c>
+      <c r="O218" t="s">
+        <v>243</v>
+      </c>
+      <c r="P218" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q218" t="s">
         <v>279</v>
-      </c>
-      <c r="M218">
-        <v>20</v>
-      </c>
-      <c r="N218" t="s">
-        <v>286</v>
-      </c>
-      <c r="O218" t="s">
-        <v>244</v>
-      </c>
-      <c r="P218" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:21">
       <c r="A219" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" t="s">
         <v>238</v>
       </c>
-      <c r="B219" t="s">
-        <v>239</v>
-      </c>
       <c r="C219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D219" t="s">
         <v>23</v>
@@ -9499,33 +9496,33 @@
         <v>300.0</v>
       </c>
       <c r="L219" t="s">
+        <v>278</v>
+      </c>
+      <c r="M219">
+        <v>20</v>
+      </c>
+      <c r="N219" t="s">
+        <v>285</v>
+      </c>
+      <c r="O219" t="s">
+        <v>243</v>
+      </c>
+      <c r="P219" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q219" t="s">
         <v>279</v>
-      </c>
-      <c r="M219">
-        <v>20</v>
-      </c>
-      <c r="N219" t="s">
-        <v>286</v>
-      </c>
-      <c r="O219" t="s">
-        <v>244</v>
-      </c>
-      <c r="P219" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:21">
       <c r="A220" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" t="s">
         <v>238</v>
       </c>
-      <c r="B220" t="s">
-        <v>239</v>
-      </c>
       <c r="C220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D220" t="s">
         <v>23</v>
@@ -9540,33 +9537,33 @@
         <v>300.0</v>
       </c>
       <c r="L220" t="s">
+        <v>278</v>
+      </c>
+      <c r="M220">
+        <v>20</v>
+      </c>
+      <c r="N220" t="s">
+        <v>301</v>
+      </c>
+      <c r="O220" t="s">
+        <v>243</v>
+      </c>
+      <c r="P220" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q220" t="s">
         <v>279</v>
-      </c>
-      <c r="M220">
-        <v>20</v>
-      </c>
-      <c r="N220" t="s">
-        <v>302</v>
-      </c>
-      <c r="O220" t="s">
-        <v>244</v>
-      </c>
-      <c r="P220" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="221" spans="1:21">
       <c r="A221" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" t="s">
         <v>238</v>
       </c>
-      <c r="B221" t="s">
-        <v>239</v>
-      </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
@@ -9581,33 +9578,33 @@
         <v>300.0</v>
       </c>
       <c r="L221" t="s">
+        <v>278</v>
+      </c>
+      <c r="M221">
+        <v>20</v>
+      </c>
+      <c r="N221" t="s">
+        <v>285</v>
+      </c>
+      <c r="O221" t="s">
+        <v>243</v>
+      </c>
+      <c r="P221" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q221" t="s">
         <v>279</v>
-      </c>
-      <c r="M221">
-        <v>20</v>
-      </c>
-      <c r="N221" t="s">
-        <v>286</v>
-      </c>
-      <c r="O221" t="s">
-        <v>244</v>
-      </c>
-      <c r="P221" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:21">
       <c r="A222" t="s">
+        <v>237</v>
+      </c>
+      <c r="B222" t="s">
         <v>238</v>
       </c>
-      <c r="B222" t="s">
-        <v>239</v>
-      </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
@@ -9622,33 +9619,33 @@
         <v>300.0</v>
       </c>
       <c r="L222" t="s">
+        <v>278</v>
+      </c>
+      <c r="M222">
+        <v>20</v>
+      </c>
+      <c r="N222" t="s">
+        <v>301</v>
+      </c>
+      <c r="O222" t="s">
+        <v>243</v>
+      </c>
+      <c r="P222" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q222" t="s">
         <v>279</v>
-      </c>
-      <c r="M222">
-        <v>20</v>
-      </c>
-      <c r="N222" t="s">
-        <v>302</v>
-      </c>
-      <c r="O222" t="s">
-        <v>244</v>
-      </c>
-      <c r="P222" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="223" spans="1:21">
       <c r="A223" t="s">
+        <v>237</v>
+      </c>
+      <c r="B223" t="s">
         <v>238</v>
       </c>
-      <c r="B223" t="s">
-        <v>239</v>
-      </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D223" t="s">
         <v>23</v>
@@ -9663,33 +9660,33 @@
         <v>450.0</v>
       </c>
       <c r="L223" t="s">
+        <v>278</v>
+      </c>
+      <c r="M223">
+        <v>20</v>
+      </c>
+      <c r="N223" t="s">
+        <v>285</v>
+      </c>
+      <c r="O223" t="s">
+        <v>243</v>
+      </c>
+      <c r="P223" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q223" t="s">
         <v>279</v>
-      </c>
-      <c r="M223">
-        <v>20</v>
-      </c>
-      <c r="N223" t="s">
-        <v>286</v>
-      </c>
-      <c r="O223" t="s">
-        <v>244</v>
-      </c>
-      <c r="P223" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:21">
       <c r="A224" t="s">
+        <v>237</v>
+      </c>
+      <c r="B224" t="s">
         <v>238</v>
       </c>
-      <c r="B224" t="s">
-        <v>239</v>
-      </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D224" t="s">
         <v>23</v>
@@ -9704,33 +9701,33 @@
         <v>50.0</v>
       </c>
       <c r="L224" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M224">
         <v>9</v>
       </c>
       <c r="N224" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O224" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:21">
       <c r="A225" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" t="s">
         <v>238</v>
       </c>
-      <c r="B225" t="s">
-        <v>239</v>
-      </c>
       <c r="C225" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
@@ -9745,33 +9742,33 @@
         <v>50.0</v>
       </c>
       <c r="L225" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M225">
         <v>8</v>
       </c>
       <c r="N225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O225" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q225" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:21">
       <c r="A226" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" t="s">
         <v>238</v>
       </c>
-      <c r="B226" t="s">
-        <v>239</v>
-      </c>
       <c r="C226" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D226" t="s">
         <v>23</v>
@@ -9786,33 +9783,33 @@
         <v>450.0</v>
       </c>
       <c r="L226" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M226" t="s">
+        <v>309</v>
+      </c>
+      <c r="N226" t="s">
         <v>310</v>
       </c>
-      <c r="N226" t="s">
-        <v>311</v>
-      </c>
       <c r="O226" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q226" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:21">
       <c r="A227" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
         <v>238</v>
       </c>
-      <c r="B227" t="s">
-        <v>239</v>
-      </c>
       <c r="C227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D227" t="s">
         <v>23</v>
@@ -9827,33 +9824,33 @@
         <v>300.0</v>
       </c>
       <c r="L227" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M227" t="s">
+        <v>309</v>
+      </c>
+      <c r="N227" t="s">
         <v>310</v>
       </c>
-      <c r="N227" t="s">
-        <v>311</v>
-      </c>
       <c r="O227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q227" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:21">
       <c r="A228" t="s">
+        <v>237</v>
+      </c>
+      <c r="B228" t="s">
         <v>238</v>
       </c>
-      <c r="B228" t="s">
-        <v>239</v>
-      </c>
       <c r="C228" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D228" t="s">
         <v>23</v>
@@ -9868,33 +9865,33 @@
         <v>300.0</v>
       </c>
       <c r="L228" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M228" t="s">
+        <v>309</v>
+      </c>
+      <c r="N228" t="s">
         <v>310</v>
       </c>
-      <c r="N228" t="s">
-        <v>311</v>
-      </c>
       <c r="O228" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P228" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q228" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:21">
       <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" t="s">
         <v>238</v>
       </c>
-      <c r="B229" t="s">
-        <v>239</v>
-      </c>
       <c r="C229" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
@@ -9909,33 +9906,33 @@
         <v>300.0</v>
       </c>
       <c r="L229" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M229" t="s">
+        <v>309</v>
+      </c>
+      <c r="N229" t="s">
         <v>310</v>
       </c>
-      <c r="N229" t="s">
-        <v>311</v>
-      </c>
       <c r="O229" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:21">
       <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="s">
         <v>238</v>
       </c>
-      <c r="B230" t="s">
-        <v>239</v>
-      </c>
       <c r="C230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
@@ -9950,33 +9947,33 @@
         <v>300.0</v>
       </c>
       <c r="L230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M230" t="s">
+        <v>309</v>
+      </c>
+      <c r="N230" t="s">
         <v>310</v>
       </c>
-      <c r="N230" t="s">
-        <v>311</v>
-      </c>
       <c r="O230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P230" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q230" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:21">
       <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
         <v>238</v>
       </c>
-      <c r="B231" t="s">
-        <v>239</v>
-      </c>
       <c r="C231" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D231" t="s">
         <v>23</v>
@@ -9991,33 +9988,33 @@
         <v>300.0</v>
       </c>
       <c r="L231" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M231" t="s">
+        <v>309</v>
+      </c>
+      <c r="N231" t="s">
         <v>310</v>
       </c>
-      <c r="N231" t="s">
-        <v>311</v>
-      </c>
       <c r="O231" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q231" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:21">
       <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
         <v>238</v>
       </c>
-      <c r="B232" t="s">
-        <v>239</v>
-      </c>
       <c r="C232" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
@@ -10032,33 +10029,33 @@
         <v>300.0</v>
       </c>
       <c r="L232" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M232" t="s">
+        <v>309</v>
+      </c>
+      <c r="N232" t="s">
         <v>310</v>
       </c>
-      <c r="N232" t="s">
-        <v>311</v>
-      </c>
       <c r="O232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q232" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:21">
       <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
         <v>238</v>
       </c>
-      <c r="B233" t="s">
-        <v>239</v>
-      </c>
       <c r="C233" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D233" t="s">
         <v>23</v>
@@ -10073,33 +10070,33 @@
         <v>300.0</v>
       </c>
       <c r="L233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M233" t="s">
+        <v>309</v>
+      </c>
+      <c r="N233" t="s">
         <v>310</v>
       </c>
-      <c r="N233" t="s">
-        <v>311</v>
-      </c>
       <c r="O233" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P233" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:21">
       <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
         <v>238</v>
       </c>
-      <c r="B234" t="s">
-        <v>239</v>
-      </c>
       <c r="C234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D234" t="s">
         <v>23</v>
@@ -10114,33 +10111,33 @@
         <v>300.0</v>
       </c>
       <c r="L234" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M234" t="s">
+        <v>309</v>
+      </c>
+      <c r="N234" t="s">
         <v>310</v>
       </c>
-      <c r="N234" t="s">
-        <v>311</v>
-      </c>
       <c r="O234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q234" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:21">
       <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
         <v>238</v>
       </c>
-      <c r="B235" t="s">
-        <v>239</v>
-      </c>
       <c r="C235" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D235" t="s">
         <v>23</v>
@@ -10155,33 +10152,33 @@
         <v>300.0</v>
       </c>
       <c r="L235" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M235" t="s">
+        <v>309</v>
+      </c>
+      <c r="N235" t="s">
         <v>310</v>
       </c>
-      <c r="N235" t="s">
-        <v>311</v>
-      </c>
       <c r="O235" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:21">
       <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" t="s">
-        <v>239</v>
-      </c>
       <c r="C236" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D236" t="s">
         <v>23</v>
@@ -10196,33 +10193,33 @@
         <v>800.0</v>
       </c>
       <c r="L236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M236" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N236" t="s">
+        <v>242</v>
+      </c>
+      <c r="O236" t="s">
         <v>243</v>
       </c>
-      <c r="O236" t="s">
-        <v>244</v>
-      </c>
       <c r="P236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q236" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:21">
       <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
         <v>238</v>
       </c>
-      <c r="B237" t="s">
-        <v>239</v>
-      </c>
       <c r="C237" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D237" t="s">
         <v>23</v>
@@ -10237,33 +10234,33 @@
         <v>1050.0</v>
       </c>
       <c r="L237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M237" t="s">
+        <v>322</v>
+      </c>
+      <c r="N237" t="s">
+        <v>242</v>
+      </c>
+      <c r="O237" t="s">
+        <v>243</v>
+      </c>
+      <c r="P237" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q237" t="s">
         <v>323</v>
-      </c>
-      <c r="N237" t="s">
-        <v>243</v>
-      </c>
-      <c r="O237" t="s">
-        <v>244</v>
-      </c>
-      <c r="P237" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="238" spans="1:21">
       <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
         <v>238</v>
       </c>
-      <c r="B238" t="s">
-        <v>239</v>
-      </c>
       <c r="C238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
@@ -10278,33 +10275,33 @@
         <v>500.0</v>
       </c>
       <c r="L238" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M238" t="s">
+        <v>325</v>
+      </c>
+      <c r="N238" t="s">
+        <v>285</v>
+      </c>
+      <c r="O238" t="s">
+        <v>243</v>
+      </c>
+      <c r="P238" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q238" t="s">
         <v>326</v>
-      </c>
-      <c r="N238" t="s">
-        <v>286</v>
-      </c>
-      <c r="O238" t="s">
-        <v>244</v>
-      </c>
-      <c r="P238" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:21">
       <c r="A239" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>239</v>
-      </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
@@ -10319,33 +10316,33 @@
         <v>500.0</v>
       </c>
       <c r="L239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M239" t="s">
+        <v>325</v>
+      </c>
+      <c r="N239" t="s">
+        <v>285</v>
+      </c>
+      <c r="O239" t="s">
+        <v>243</v>
+      </c>
+      <c r="P239" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q239" t="s">
         <v>326</v>
-      </c>
-      <c r="N239" t="s">
-        <v>286</v>
-      </c>
-      <c r="O239" t="s">
-        <v>244</v>
-      </c>
-      <c r="P239" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="240" spans="1:21">
       <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240" t="s">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
-        <v>239</v>
-      </c>
       <c r="C240" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D240" t="s">
         <v>23</v>
@@ -10360,33 +10357,33 @@
         <v>500.0</v>
       </c>
       <c r="L240" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M240" t="s">
+        <v>325</v>
+      </c>
+      <c r="N240" t="s">
+        <v>285</v>
+      </c>
+      <c r="O240" t="s">
+        <v>243</v>
+      </c>
+      <c r="P240" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q240" t="s">
         <v>326</v>
-      </c>
-      <c r="N240" t="s">
-        <v>286</v>
-      </c>
-      <c r="O240" t="s">
-        <v>244</v>
-      </c>
-      <c r="P240" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:21">
       <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" t="s">
         <v>238</v>
       </c>
-      <c r="B241" t="s">
-        <v>239</v>
-      </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D241" t="s">
         <v>23</v>
@@ -10401,33 +10398,33 @@
         <v>500.0</v>
       </c>
       <c r="L241" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M241" t="s">
+        <v>325</v>
+      </c>
+      <c r="N241" t="s">
+        <v>285</v>
+      </c>
+      <c r="O241" t="s">
+        <v>243</v>
+      </c>
+      <c r="P241" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q241" t="s">
         <v>326</v>
-      </c>
-      <c r="N241" t="s">
-        <v>286</v>
-      </c>
-      <c r="O241" t="s">
-        <v>244</v>
-      </c>
-      <c r="P241" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:21">
       <c r="A242" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
         <v>238</v>
       </c>
-      <c r="B242" t="s">
-        <v>239</v>
-      </c>
       <c r="C242" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
         <v>23</v>
@@ -10442,33 +10439,33 @@
         <v>500.0</v>
       </c>
       <c r="L242" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M242" t="s">
+        <v>325</v>
+      </c>
+      <c r="N242" t="s">
+        <v>285</v>
+      </c>
+      <c r="O242" t="s">
+        <v>243</v>
+      </c>
+      <c r="P242" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q242" t="s">
         <v>326</v>
-      </c>
-      <c r="N242" t="s">
-        <v>286</v>
-      </c>
-      <c r="O242" t="s">
-        <v>244</v>
-      </c>
-      <c r="P242" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:21">
       <c r="A243" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" t="s">
         <v>238</v>
       </c>
-      <c r="B243" t="s">
-        <v>239</v>
-      </c>
       <c r="C243" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D243" t="s">
         <v>23</v>
@@ -10483,33 +10480,33 @@
         <v>500.0</v>
       </c>
       <c r="L243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M243" t="s">
+        <v>325</v>
+      </c>
+      <c r="N243" t="s">
+        <v>285</v>
+      </c>
+      <c r="O243" t="s">
+        <v>243</v>
+      </c>
+      <c r="P243" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q243" t="s">
         <v>326</v>
-      </c>
-      <c r="N243" t="s">
-        <v>286</v>
-      </c>
-      <c r="O243" t="s">
-        <v>244</v>
-      </c>
-      <c r="P243" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:21">
       <c r="A244" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244" t="s">
         <v>238</v>
       </c>
-      <c r="B244" t="s">
-        <v>239</v>
-      </c>
       <c r="C244" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D244" t="s">
         <v>23</v>
@@ -10524,33 +10521,33 @@
         <v>500.0</v>
       </c>
       <c r="L244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M244" t="s">
+        <v>325</v>
+      </c>
+      <c r="N244" t="s">
+        <v>285</v>
+      </c>
+      <c r="O244" t="s">
+        <v>243</v>
+      </c>
+      <c r="P244" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q244" t="s">
         <v>326</v>
-      </c>
-      <c r="N244" t="s">
-        <v>286</v>
-      </c>
-      <c r="O244" t="s">
-        <v>244</v>
-      </c>
-      <c r="P244" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:21">
       <c r="A245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B245" t="s">
         <v>238</v>
       </c>
-      <c r="B245" t="s">
-        <v>239</v>
-      </c>
       <c r="C245" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D245" t="s">
         <v>23</v>
@@ -10565,33 +10562,33 @@
         <v>500.0</v>
       </c>
       <c r="L245" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M245" t="s">
+        <v>325</v>
+      </c>
+      <c r="N245" t="s">
+        <v>285</v>
+      </c>
+      <c r="O245" t="s">
+        <v>243</v>
+      </c>
+      <c r="P245" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q245" t="s">
         <v>326</v>
-      </c>
-      <c r="N245" t="s">
-        <v>286</v>
-      </c>
-      <c r="O245" t="s">
-        <v>244</v>
-      </c>
-      <c r="P245" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:21">
       <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" t="s">
         <v>238</v>
       </c>
-      <c r="B246" t="s">
-        <v>239</v>
-      </c>
       <c r="C246" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D246" t="s">
         <v>23</v>
@@ -10606,33 +10603,33 @@
         <v>500.0</v>
       </c>
       <c r="L246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M246" t="s">
+        <v>325</v>
+      </c>
+      <c r="N246" t="s">
+        <v>285</v>
+      </c>
+      <c r="O246" t="s">
+        <v>243</v>
+      </c>
+      <c r="P246" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q246" t="s">
         <v>326</v>
-      </c>
-      <c r="N246" t="s">
-        <v>286</v>
-      </c>
-      <c r="O246" t="s">
-        <v>244</v>
-      </c>
-      <c r="P246" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:21">
       <c r="A247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B247" t="s">
         <v>238</v>
       </c>
-      <c r="B247" t="s">
-        <v>239</v>
-      </c>
       <c r="C247" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D247" t="s">
         <v>23</v>
@@ -10647,22 +10644,22 @@
         <v>500.0</v>
       </c>
       <c r="L247" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M247" t="s">
+        <v>325</v>
+      </c>
+      <c r="N247" t="s">
+        <v>285</v>
+      </c>
+      <c r="O247" t="s">
+        <v>243</v>
+      </c>
+      <c r="P247" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q247" t="s">
         <v>326</v>
-      </c>
-      <c r="N247" t="s">
-        <v>286</v>
-      </c>
-      <c r="O247" t="s">
-        <v>244</v>
-      </c>
-      <c r="P247" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
